--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="169">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -149,28 +149,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムの全体構成図を下記に示す。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>図１　システム構成図</t>
     <rPh sb="0" eb="1">
       <t>ズ</t>
@@ -216,31 +194,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下表に本システムで提供する機能の一覧表を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,25 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下表に本システムで開発するシステム画面を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -428,19 +362,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下記に各画面のレイアウトを示す。</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>カクガメン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理名</t>
     <rPh sb="0" eb="2">
       <t>ショリ</t>
@@ -454,25 +375,6 @@
     <t>機能ID</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下図に本システムで開発するシステム処理のフローを示す。</t>
-    <rPh sb="0" eb="2">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>シメ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -529,10 +431,6 @@
     <rPh sb="0" eb="2">
       <t>ミョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -710,25 +608,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムの主要な機能は下記の通りである。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内　部　設　計　書</t>
     <rPh sb="0" eb="1">
       <t>ナイ</t>
@@ -754,34 +633,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本システムを利用した業務・作業の大まかな流れは下図の通りである。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -814,22 +665,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムは、Webを経由したクライアントサーバ方式でサービスを提供する。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケイユ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -927,28 +762,6 @@
     <t>データテーブル設計</t>
     <rPh sb="7" eb="9">
       <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下表に本システムの物理データ設計として、データテーブル一覧を記す。</t>
-    <rPh sb="0" eb="2">
-      <t>カヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>シル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1455,24 +1268,6 @@
   </si>
   <si>
     <t>マップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムへアクセスしたユーザにトップページを表示</t>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページ表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1631,109 +1426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムの目的は、地震が発生した際に迅速に避難してもらうことである。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モクテキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジンソク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒナン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ機能：　ユーザに避難所までのルート情報を提供する。</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒナン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>災害情報機能：　ユーザに日本国内と習志野市内の災害情報を提供する。</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コクナイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ナラシノ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シナイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>避難所追加機能：　管理者に避難所を追加する機能を提供する。</t>
-    <rPh sb="0" eb="3">
-      <t>ヒナンジョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ヒナンジョ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小</t>
   </si>
   <si>
@@ -1782,6 +1474,340 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認印欄（2017/7/14）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本システムの目的は, 地震が発生した際に迅速に避難してもらうことである. </t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジンソク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本システムの主要な機能は下記の通りである. </t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">マップ機能：　ユーザに避難所までのルート情報を提供する. </t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒナン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">災害情報機能：　ユーザに日本国内と習志野市内の災害情報を提供する. </t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ナラシノ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シナイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">避難所追加機能：　管理者に避難所を追加する機能を提供する. </t>
+    <rPh sb="0" eb="3">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本システムは, Webを経由したクライアントサーバ方式でサービスを提供する. </t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本システムの全体構成図を下記に示す. </t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本システムを利用した業務・作業の大まかな流れは下図の通りである. </t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下表に本システムで提供する機能の一覧表を記す. </t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下表に本システムで開発するシステム画面を記す. </t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下記に各画面のレイアウトを示す. </t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カクガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下図に本システムで開発するシステム処理のフローを示す. </t>
+    <rPh sb="0" eb="2">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下表に本システムの物理データ設計として, データテーブル一覧を記す. </t>
+    <rPh sb="0" eb="2">
+      <t>カヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>シル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在地から避難所までのルートを表示</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在地から避難所までのルートを地図上に表示し, ルート案内を表示</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2378,7 +2404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2640,6 +2666,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2730,34 +2762,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2775,6 +2798,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2786,9 +2818,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2805,10 +2834,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5451,15 +5480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>101150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>168385</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>121876</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67376</xdr:rowOff>
+      <xdr:colOff>189111</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123405</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5468,8 +5497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="522610" y="3475410"/>
-          <a:ext cx="1226102" cy="494687"/>
+          <a:off x="594209" y="3854823"/>
+          <a:ext cx="1230961" cy="493200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -5522,15 +5551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>592027</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78443</xdr:rowOff>
+      <xdr:colOff>636850</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>121877</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67377</xdr:rowOff>
+      <xdr:colOff>166700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5539,7 +5568,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2228086" y="3462619"/>
+          <a:off x="2272909" y="3854825"/>
           <a:ext cx="1098673" cy="493199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5613,15 +5642,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>121876</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156952</xdr:rowOff>
+      <xdr:colOff>189111</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>592027</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156954</xdr:rowOff>
+      <xdr:colOff>636850</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44896</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5633,8 +5662,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1757935" y="3709217"/>
-          <a:ext cx="470151" cy="2"/>
+          <a:off x="1825170" y="4101423"/>
+          <a:ext cx="447739" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -5663,15 +5692,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>99463</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:colOff>166698</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>659758</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156954</xdr:rowOff>
+      <xdr:colOff>726993</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44896</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5680,7 +5709,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3304345" y="3709146"/>
+          <a:off x="3371580" y="4101352"/>
           <a:ext cx="560295" cy="73"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -5712,15 +5741,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1085083</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>1152318</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>558409</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>625644</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5729,7 +5758,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6643201" y="3451411"/>
+          <a:off x="6710436" y="3843617"/>
           <a:ext cx="1512796" cy="526677"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
@@ -5821,9 +5850,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>132585</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>199820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="694101" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -5833,7 +5862,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4906291" y="3944470"/>
+          <a:off x="4973526" y="4336676"/>
           <a:ext cx="694101" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5873,9 +5902,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>42799</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>110034</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="740223" cy="542456"/>
     <xdr:sp macro="" textlink="">
@@ -5885,7 +5914,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3247681" y="3910853"/>
+          <a:off x="3314916" y="4303059"/>
           <a:ext cx="740223" cy="542456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5930,9 +5959,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>479333</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:colOff>546568</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="740223" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -5942,7 +5971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2899804" y="4852146"/>
+          <a:off x="2967039" y="5244352"/>
           <a:ext cx="740223" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6283,15 +6312,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>717175</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:colOff>784410</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>818028</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:colOff>885263</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6300,7 +6329,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5490881" y="3496236"/>
+          <a:off x="5558116" y="3888442"/>
           <a:ext cx="885265" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6354,15 +6383,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>324970</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:colOff>392205</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>694765</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44893</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100922</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6373,7 +6402,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2745441" y="3955675"/>
+          <a:off x="2812676" y="4347881"/>
           <a:ext cx="1154206" cy="818100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -6405,15 +6434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156881</xdr:rowOff>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>717175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>162485</xdr:rowOff>
+      <xdr:colOff>784410</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50427</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6424,7 +6453,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4874559" y="3709146"/>
+          <a:off x="4941794" y="4101352"/>
           <a:ext cx="616322" cy="5604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6460,15 +6489,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>818028</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>162485</xdr:rowOff>
+      <xdr:colOff>885263</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1085083</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>166027</xdr:rowOff>
+      <xdr:colOff>1152318</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53969</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6480,7 +6509,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6376146" y="3714750"/>
+          <a:off x="6443381" y="4106956"/>
           <a:ext cx="267055" cy="3542"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6516,15 +6545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>558409</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>625644</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>162485</xdr:rowOff>
+      <xdr:colOff>257733</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>50427</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6536,7 +6565,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8155997" y="3709147"/>
+          <a:off x="8223232" y="4101353"/>
           <a:ext cx="416501" cy="5603"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6572,9 +6601,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>491174</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>72837</xdr:rowOff>
+      <xdr:colOff>558409</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="415498" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -6584,7 +6613,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8088762" y="3793190"/>
+          <a:off x="8155997" y="4185396"/>
           <a:ext cx="415498" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6624,15 +6653,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:colOff>257733</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>347381</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>414616</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6641,7 +6670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8572498" y="3507441"/>
+          <a:off x="8639733" y="3899647"/>
           <a:ext cx="941295" cy="403412"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6695,15 +6724,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>694765</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>134469</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>224614</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123403</xdr:rowOff>
+      <xdr:colOff>291849</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>11345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6712,7 +6741,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3899647" y="4527175"/>
+          <a:off x="3966882" y="4919381"/>
           <a:ext cx="1098673" cy="493199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6766,15 +6795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>202202</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67375</xdr:rowOff>
+      <xdr:colOff>269437</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123404</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6783,7 +6812,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3877235" y="3462617"/>
+          <a:off x="3944470" y="3854823"/>
           <a:ext cx="1098673" cy="493199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7586,7 +7615,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>全国と習志野市の避難情報を表示する。</a:t>
+            <a:t>全国と習志野市の避難情報を表示する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -7605,13 +7650,16 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>災害情報はツイッターから取得する。</a:t>
+            <a:t>災害情報はツイッターから取得する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
@@ -7624,7 +7672,39 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>上のボタン「災害情報」をクリックすると、開いている同ページ「災害情報」画面に飛ぶ。（再読み込みされる）　</a:t>
+            <a:t>上のボタン「災害情報」をクリックすると</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>開いている同ページ「災害情報」画面に飛ぶ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（再読み込みされる）　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10497,7 +10577,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>全国と習志野市の避難情報を表示する。</a:t>
+            <a:t>全国と習志野市の避難情報を表示する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10537,7 +10641,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>災害情報はツイッターから取得する。</a:t>
+            <a:t>災害情報はツイッターから取得する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10574,7 +10702,79 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>上のボタン「災害情報」をクリックすると、開いている同ページ「災害情報」画面に飛ぶ。（再読み込みされる）</a:t>
+            <a:t>上のボタン「災害情報」をクリックすると</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>開いている同ページ「災害情報」画面に飛ぶ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（再読み込みされる）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10614,7 +10814,67 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>管理者のみがアクセスできるよう、顧客画面とは別で用意する。</a:t>
+            <a:t>管理者のみがアクセスできるよう、顧客</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面とは別で用意する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -11486,8 +11746,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="278547" y="3705945"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="258271" y="3418011"/>
+          <a:ext cx="1248895" cy="529704"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -12077,8 +12337,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10277397" y="3957278"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="9445440" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -12640,8 +12900,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3529853" y="3696341"/>
-          <a:ext cx="1512796" cy="577904"/>
+          <a:off x="3251886" y="3408788"/>
+          <a:ext cx="1389420" cy="535726"/>
           <a:chOff x="328089" y="3883640"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -13985,8 +14245,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="J1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14000,7 +14260,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -14016,12 +14276,12 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="87">
+        <v>54</v>
+      </c>
+      <c r="P1" s="89">
         <v>42927</v>
       </c>
-      <c r="Q1" s="88"/>
+      <c r="Q1" s="90"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -14038,11 +14298,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="100"/>
+      <c r="O2" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -14087,17 +14347,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
+      <c r="E5" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -14108,15 +14368,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14127,15 +14387,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14183,19 +14443,19 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
+      <c r="D10" s="109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -14204,17 +14464,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -14223,17 +14483,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -14243,17 +14503,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
+      <c r="E13" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -14264,15 +14524,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -14283,15 +14543,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -14302,15 +14562,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -14321,15 +14581,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -14360,15 +14620,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
+      <c r="F19" s="100" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -14381,13 +14641,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -14400,13 +14660,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -14419,13 +14679,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -14438,13 +14698,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -14457,13 +14717,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -14476,13 +14736,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -14495,13 +14755,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
       <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -14557,14 +14817,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="103"/>
+      <c r="K29" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="105"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -14578,18 +14838,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="P30" s="95"/>
+      <c r="K30" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="97"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -14603,12 +14863,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="96"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="98"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -14622,12 +14882,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="96"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="98"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -14641,12 +14901,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="96"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="98"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -14660,12 +14920,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="96"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="98"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -14679,12 +14939,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="96"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="98"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14698,12 +14958,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="94"/>
-      <c r="O36" s="94"/>
-      <c r="P36" s="97"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="99"/>
       <c r="Q36" s="50"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -14758,7 +15018,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14775,26 +15035,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -14805,7 +15065,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P1" s="19">
         <v>42927</v>
@@ -14833,10 +15093,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -14855,7 +15115,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -14893,10 +15153,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -15527,8 +15787,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15559,12 +15819,12 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="88"/>
+        <v>54</v>
+      </c>
+      <c r="P1" s="89">
+        <v>42927</v>
+      </c>
+      <c r="Q1" s="90"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -15581,11 +15841,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="100"/>
+      <c r="O2" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -15630,17 +15890,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
+      <c r="E5" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -15651,15 +15911,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -15670,15 +15930,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -15726,20 +15986,20 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="107" t="str">
+      <c r="D10" s="109" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -15748,17 +16008,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -15767,17 +16027,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -15787,17 +16047,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
+      <c r="E13" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -15808,15 +16068,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -15827,15 +16087,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -15846,15 +16106,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="106"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -15865,15 +16125,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -15904,15 +16164,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="135" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
+      <c r="F19" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -15925,13 +16185,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -15944,13 +16204,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -15963,13 +16223,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -15982,13 +16242,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -16001,13 +16261,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -16020,13 +16280,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -16080,16 +16340,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="134"/>
+      <c r="I28" s="134" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="136"/>
       <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -16101,22 +16361,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="137" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="102"/>
-      <c r="M29" s="138" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" s="138"/>
-      <c r="O29" s="138" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" s="141"/>
+      <c r="I29" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="104"/>
+      <c r="K29" s="138" t="s">
+        <v>79</v>
+      </c>
+      <c r="L29" s="104"/>
+      <c r="M29" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="142"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16128,14 +16388,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="96"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="140"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="98"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16147,14 +16407,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="96"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="140"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="98"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16166,14 +16426,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="96"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="98"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16185,14 +16445,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="96"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="140"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="98"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16204,14 +16464,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="96"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="98"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -16223,14 +16483,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="94"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="97"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="99"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16287,7 +16547,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16308,26 +16568,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -16338,10 +16598,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P1" s="19">
-        <v>42923</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16369,7 +16629,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -16389,7 +16649,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -16408,57 +16668,57 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="143" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="143"/>
       <c r="D6" s="143"/>
-      <c r="E6" s="92">
+      <c r="E6" s="94">
         <v>2</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="142" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="142"/>
-      <c r="K6" s="142"/>
+        <v>34</v>
+      </c>
+      <c r="I6" s="144" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="142"/>
-      <c r="N6" s="142"/>
-      <c r="O6" s="142"/>
+        <v>34</v>
+      </c>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="143" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="143"/>
       <c r="D7" s="143"/>
-      <c r="E7" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
+      <c r="E7" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="142" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
+        <v>33</v>
+      </c>
+      <c r="I7" s="144" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
+        <v>33</v>
+      </c>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -16658,7 +16918,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="9"/>
       <c r="P18" s="42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -16893,7 +17153,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="9"/>
       <c r="P31" s="42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -17060,17 +17320,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17090,7 +17350,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17111,26 +17371,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -17141,10 +17401,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P1" s="19">
-        <v>42923</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17172,7 +17432,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -17192,7 +17452,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -17230,10 +17490,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -17253,26 +17513,26 @@
       <c r="B8" s="16"/>
       <c r="C8" s="27"/>
       <c r="D8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="144" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="144"/>
+        <v>13</v>
+      </c>
+      <c r="E8" s="145" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="145"/>
       <c r="G8" s="35" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="144" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
+        <v>47</v>
+      </c>
+      <c r="J8" s="145" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -17286,24 +17546,24 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="115"/>
+      <c r="G9" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="113"/>
-      <c r="G9" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="J9" s="111" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" s="112"/>
-      <c r="L9" s="113"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -17317,22 +17577,22 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="113"/>
+      <c r="E10" s="113" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="115"/>
       <c r="G10" s="31" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="111" t="s">
-        <v>159</v>
-      </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
+      <c r="J10" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -17346,20 +17606,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="113"/>
+      <c r="E11" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="115"/>
       <c r="G11" s="31" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -17373,20 +17633,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="113"/>
+      <c r="E12" s="113" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="115"/>
       <c r="G12" s="31" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="I12" s="31"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="115"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -17400,14 +17660,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="115"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -17421,14 +17681,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="115"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -17442,14 +17702,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="115"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="115"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -17463,14 +17723,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="115"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="115"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -17484,14 +17744,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="115"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="115"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -17505,14 +17765,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="115"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -17526,14 +17786,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="111"/>
-      <c r="F19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="115"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="115"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -17547,14 +17807,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="115"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -17568,14 +17828,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="115"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="115"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -17589,14 +17849,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="115"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="115"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -17610,14 +17870,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="115"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -17631,14 +17891,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="115"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="115"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -17652,14 +17912,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="115"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="115"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -17673,14 +17933,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="115"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="112"/>
-      <c r="L26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="115"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -17940,12 +18200,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -17962,25 +18235,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17999,8 +18259,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="F1" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18017,26 +18277,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -18047,7 +18307,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P1" s="19">
         <v>42920</v>
@@ -18075,10 +18335,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -18098,7 +18358,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>5</v>
@@ -18121,7 +18381,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -18158,7 +18418,7 @@
       <c r="A8" s="15"/>
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>6</v>
@@ -18181,7 +18441,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="1"/>
       <c r="D9" s="16" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -18201,10 +18461,10 @@
       <c r="B10" s="16"/>
       <c r="C10" s="1"/>
       <c r="D10" s="16" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -18223,10 +18483,10 @@
       <c r="B11" s="16"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -18245,10 +18505,10 @@
       <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -18284,7 +18544,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>8</v>
@@ -18307,7 +18567,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -18327,7 +18587,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="16" t="s">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -18519,7 +18779,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -18551,10 +18811,10 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -18574,7 +18834,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -18762,7 +19022,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -18812,8 +19072,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18830,37 +19090,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="P1" s="19">
         <v>42927</v>
@@ -18888,10 +19148,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -18911,7 +19171,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18950,30 +19210,30 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="122"/>
+      <c r="I7" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117" t="s">
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="117" t="s">
+      <c r="N7" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>20</v>
-      </c>
       <c r="O7" s="68" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="P7" s="44"/>
     </row>
@@ -18982,31 +19242,31 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="22">
-        <f t="shared" ref="D8:D21" si="0">ROW()-7</f>
+        <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="122"/>
-      <c r="I8" s="120" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
+      <c r="E8" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="120"/>
+      <c r="G8" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="120"/>
+      <c r="I8" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="P8" s="9"/>
     </row>
@@ -19015,31 +19275,29 @@
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="F9" s="122"/>
-      <c r="G9" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="120" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="119" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="120"/>
+      <c r="I9" s="119" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="120"/>
       <c r="M9" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P9" s="9"/>
     </row>
@@ -19051,26 +19309,26 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="120" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="120" t="s">
-        <v>123</v>
-      </c>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="119" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" s="120"/>
+      <c r="I10" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="23" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P10" s="9"/>
     </row>
@@ -19082,26 +19340,26 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="122"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="120"/>
+      <c r="I11" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="120"/>
       <c r="M11" s="23" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="P11" s="9"/>
     </row>
@@ -19113,28 +19371,28 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="122"/>
-      <c r="G12" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="122"/>
-      <c r="I12" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="122"/>
+      <c r="E12" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="120"/>
+      <c r="G12" s="119" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="120"/>
+      <c r="I12" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="120"/>
       <c r="M12" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="P12" s="9"/>
     </row>
@@ -19146,26 +19404,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="122"/>
-      <c r="I13" s="120" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="122"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="120"/>
+      <c r="I13" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="120"/>
       <c r="M13" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P13" s="9"/>
     </row>
@@ -19177,28 +19435,28 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="120" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="120" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="122"/>
-      <c r="I14" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
+      <c r="E14" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="120"/>
+      <c r="G14" s="119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="120"/>
+      <c r="I14" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="120"/>
       <c r="M14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="23" t="s">
-        <v>26</v>
-      </c>
       <c r="O14" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P14" s="9"/>
     </row>
@@ -19210,26 +19468,26 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="120" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="122"/>
-      <c r="I15" s="120" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="120"/>
+      <c r="I15" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="120"/>
       <c r="M15" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="P15" s="9"/>
     </row>
@@ -19241,28 +19499,28 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="120" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="120" t="s">
-        <v>110</v>
-      </c>
-      <c r="H16" s="122"/>
-      <c r="I16" s="120" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16" s="121"/>
-      <c r="K16" s="121"/>
-      <c r="L16" s="122"/>
+      <c r="E16" s="119" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="120"/>
+      <c r="G16" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="120"/>
+      <c r="I16" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="120"/>
       <c r="M16" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P16" s="9"/>
     </row>
@@ -19274,26 +19532,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="120" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="122"/>
-      <c r="I17" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="121"/>
-      <c r="K17" s="121"/>
-      <c r="L17" s="122"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="119" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="120"/>
+      <c r="I17" s="119" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="120"/>
       <c r="M17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="23" t="s">
-        <v>26</v>
-      </c>
       <c r="O17" s="23" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="P17" s="9"/>
     </row>
@@ -19305,14 +19563,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="121"/>
-      <c r="K18" s="121"/>
-      <c r="L18" s="122"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -19326,14 +19584,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="121"/>
-      <c r="L19" s="122"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="120"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -19347,14 +19605,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="122"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="120"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -19368,14 +19626,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="122"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="120"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -19386,14 +19644,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -19731,29 +19989,26 @@
     <filterColumn colId="6" showButton="0"/>
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
-  <mergeCells count="51">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+  <mergeCells count="50">
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
@@ -19764,25 +20019,27 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -19812,8 +20069,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19830,26 +20087,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -19860,7 +20117,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P1" s="19">
         <v>42927</v>
@@ -19888,10 +20145,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -19911,10 +20168,10 @@
       <c r="A5" s="15"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -19933,7 +20190,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -19952,24 +20209,24 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="119"/>
-      <c r="G7" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
+      <c r="C7" s="133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="133"/>
+      <c r="E7" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="122"/>
+      <c r="G7" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -19978,16 +20235,16 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="124" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="125"/>
+      <c r="C8" s="131" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="132"/>
       <c r="E8" s="71" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F8" s="74"/>
       <c r="G8" s="71" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H8" s="74"/>
       <c r="I8" s="74"/>
@@ -20002,16 +20259,16 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="125"/>
+      <c r="C9" s="131" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="132"/>
       <c r="E9" s="71" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="85" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="H9" s="83"/>
       <c r="I9" s="83"/>
@@ -20026,16 +20283,16 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="124" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="125"/>
+      <c r="C10" s="131" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="132"/>
       <c r="E10" s="71" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="73" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H10" s="71"/>
       <c r="I10" s="74"/>
@@ -20053,11 +20310,11 @@
       <c r="C11" s="75"/>
       <c r="D11" s="76"/>
       <c r="E11" s="71" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="84" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
@@ -20090,15 +20347,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -20108,15 +20365,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="130"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="129"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -20126,18 +20383,18 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="129"/>
+      <c r="K15" s="129"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -20146,15 +20403,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="130"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="129"/>
+      <c r="K16" s="129"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -20183,10 +20440,10 @@
       <c r="A18" s="15"/>
       <c r="B18" s="1"/>
       <c r="C18" s="16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="65"/>
@@ -20205,7 +20462,7 @@
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
@@ -20601,6 +20858,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -20617,11 +20879,6 @@
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20641,7 +20898,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20658,37 +20915,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P1" s="19">
         <v>42927</v>
@@ -20716,10 +20973,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -20738,7 +20995,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -20776,10 +21033,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -21411,7 +21668,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21428,26 +21685,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -21458,7 +21715,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="P1" s="19">
         <v>42927</v>
@@ -21486,10 +21743,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -21508,7 +21765,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -21546,10 +21803,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -22181,7 +22438,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22198,37 +22455,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="N1" s="70" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P1" s="19">
         <v>42927</v>
@@ -22256,10 +22513,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -22278,7 +22535,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -22316,10 +22573,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -22950,8 +23207,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22968,37 +23225,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="P1" s="19">
         <v>42927</v>
@@ -23026,10 +23283,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -23048,7 +23305,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -23086,10 +23343,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -23721,7 +23978,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23738,37 +23995,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111" t="str">
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="H1" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="118"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P1" s="19">
         <v>42920</v>
@@ -23796,10 +24053,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -23818,7 +24075,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -23856,10 +24113,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="画面１" sheetId="1" r:id="rId4"/>
     <sheet name="利用者画面(マップ)" sheetId="18" r:id="rId5"/>
     <sheet name="災害情報_利用者" sheetId="10" r:id="rId6"/>
-    <sheet name="管理者画面(マップ)" sheetId="23" r:id="rId7"/>
+    <sheet name="管理者画面(マップ)２" sheetId="25" r:id="rId7"/>
     <sheet name="追加画面" sheetId="22" r:id="rId8"/>
     <sheet name="追加失敗画面 " sheetId="24" r:id="rId9"/>
     <sheet name="追加成功画面" sheetId="19" r:id="rId10"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'機能 '!$D$7:$O$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">概略!$A$1:$P$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'管理者画面(マップ)'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'管理者画面(マップ)２'!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'機能 '!$A$1:$P$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">災害情報_管理者!$A$1:$P$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">災害情報_利用者!$A$1:$P$39</definedName>
@@ -41,7 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙_外部!$A$1:$Q$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">表紙_内部!$A$1:$Q$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'利用者画面(マップ)'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'管理者画面(マップ)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'管理者画面(マップ)２'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">災害情報_管理者!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">災害情報_利用者!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">追加画面!$1:$2</definedName>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="173">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -427,13 +427,6 @@
   </si>
   <si>
     <t>(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>苗字</t>
-    <rPh sb="0" eb="2">
-      <t>ミョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1035,14 +1028,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップ表示処理</t>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
@@ -1569,16 +1554,6 @@
     </rPh>
     <rPh sb="7" eb="10">
       <t>リヨウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ画面（管理者）</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カンリシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1726,10 +1701,6 @@
   </si>
   <si>
     <t>②</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2535,12 +2506,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2590,6 +2555,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2685,16 +2662,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2703,13 +2677,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2727,13 +2701,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2745,28 +2719,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9429,8 +9400,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="544697" y="1278592"/>
-          <a:ext cx="1640257" cy="3876114"/>
+          <a:off x="649472" y="1316692"/>
+          <a:ext cx="7002832" cy="3949139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9743,6 +9714,243 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>習志野市の避難所一覧マップ</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1698625" y="2151063"/>
+          <a:ext cx="2143125" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108136</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>325438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4045136" y="2167593"/>
+          <a:ext cx="995177" cy="293032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ルートを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>754063</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="2143125"/>
+          <a:ext cx="674688" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目的地</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="二等辺三角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3571875" y="2230436"/>
+          <a:ext cx="222250" cy="158751"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10525,13 +10733,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38285</xdr:colOff>
+      <xdr:colOff>30347</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>135492</xdr:colOff>
+      <xdr:colOff>127554</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
@@ -10542,8 +10750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552635" y="1278592"/>
-          <a:ext cx="1640257" cy="3876114"/>
+          <a:off x="658997" y="1297642"/>
+          <a:ext cx="7031407" cy="3876114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10587,15 +10795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>685427</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>64436</xdr:rowOff>
+      <xdr:colOff>709240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:colOff>1166813</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:rowOff>89181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10604,8 +10812,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="856877" y="2807636"/>
-          <a:ext cx="1029073" cy="1354790"/>
+          <a:off x="1547440" y="2709863"/>
+          <a:ext cx="5143873" cy="1513168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10657,25 +10865,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>166690</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>103189</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
+      <xdr:colOff>690563</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>112710</xdr:rowOff>
+      <xdr:rowOff>39688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="785815" y="1466850"/>
-          <a:ext cx="2182810" cy="233360"/>
+          <a:off x="722314" y="1409700"/>
+          <a:ext cx="2349499" cy="217488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10725,26 +10933,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>733427</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103188</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>39688</xdr:colOff>
+      <xdr:colOff>7936</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>115885</xdr:rowOff>
+      <xdr:rowOff>39688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448302" y="1470025"/>
-          <a:ext cx="2116136" cy="233360"/>
+          <a:off x="5595938" y="1381126"/>
+          <a:ext cx="1936748" cy="246062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10794,95 +11002,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>735016</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22409</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>109536</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3116266" y="1463676"/>
-          <a:ext cx="2170110" cy="233360"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>避難所追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>54159</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>118128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="568509" y="1661178"/>
-          <a:ext cx="1615891" cy="280334"/>
+          <a:off x="651059" y="1624666"/>
+          <a:ext cx="7007041" cy="280334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10924,6 +11063,312 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>習志野市の避難所一覧マップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="2116138"/>
+          <a:ext cx="2149475" cy="282575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>108136</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>325438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4070536" y="2132668"/>
+          <a:ext cx="998352" cy="286682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ルートを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>754063</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="917575" y="2108200"/>
+          <a:ext cx="674688" cy="311150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目的地</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="二等辺三角形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3594100" y="2195511"/>
+          <a:ext cx="222250" cy="155576"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>103372</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>146704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>717732</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3262497" y="1384954"/>
+          <a:ext cx="2170110" cy="233360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>避難所追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14352,7 +14797,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="F1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -14367,7 +14812,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -14383,12 +14828,12 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="88">
+        <v>51</v>
+      </c>
+      <c r="P1" s="90">
         <v>42930</v>
       </c>
-      <c r="Q1" s="89"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -14405,11 +14850,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
+      <c r="O2" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -14454,17 +14899,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
+      <c r="E5" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -14475,15 +14920,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -14494,15 +14939,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -14550,19 +14995,19 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="108" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
+      <c r="D10" s="110" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -14571,17 +15016,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -14590,17 +15035,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -14610,17 +15055,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
+      <c r="E13" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -14631,15 +15076,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -14650,15 +15095,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -14669,15 +15114,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -14688,15 +15133,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -14727,15 +15172,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
+      <c r="F19" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -14748,13 +15193,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -14767,13 +15212,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -14786,13 +15231,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -14805,13 +15250,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -14824,13 +15269,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -14843,13 +15288,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -14862,13 +15307,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -14924,14 +15369,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="104"/>
+      <c r="K29" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="106"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -14945,18 +15390,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91" t="s">
+      <c r="K30" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="96"/>
+      <c r="P30" s="98"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -14970,12 +15415,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="97"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="99"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -14989,12 +15434,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="97"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="99"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -15008,12 +15453,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="97"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="99"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -15027,12 +15472,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="97"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="99"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -15046,12 +15491,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="97"/>
+      <c r="K35" s="94"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="99"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15065,12 +15510,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="98"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="100"/>
       <c r="Q36" s="50"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -15142,37 +15587,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -15200,7 +15645,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>32</v>
@@ -15222,7 +15667,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15260,10 +15705,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -15912,26 +16357,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -15942,7 +16387,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -15970,7 +16415,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>32</v>
@@ -15992,7 +16437,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -16030,10 +16475,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -16696,12 +17141,12 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="88">
+        <v>51</v>
+      </c>
+      <c r="P1" s="90">
         <v>42930</v>
       </c>
-      <c r="Q1" s="89"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -16718,11 +17163,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="100" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
+      <c r="O2" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="103"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -16767,17 +17212,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
+      <c r="E5" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -16788,15 +17233,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -16807,15 +17252,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -16863,20 +17308,20 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="108" t="str">
+      <c r="D10" s="110" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -16885,17 +17330,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -16904,17 +17349,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -16924,17 +17369,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
+      <c r="E13" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -16945,15 +17390,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -16964,15 +17409,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -16983,15 +17428,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -17002,15 +17447,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -17041,15 +17486,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
+      <c r="F19" s="137" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -17062,13 +17507,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -17081,13 +17526,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -17100,13 +17545,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -17119,13 +17564,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -17138,13 +17583,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="137"/>
+      <c r="L24" s="137"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -17157,13 +17602,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -17217,16 +17662,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="135"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="142"/>
       <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -17238,20 +17683,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="102" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="103"/>
-      <c r="M29" s="137" t="s">
-        <v>176</v>
-      </c>
-      <c r="N29" s="137"/>
-      <c r="O29" s="137" t="s">
-        <v>50</v>
-      </c>
-      <c r="P29" s="138"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="L29" s="105"/>
+      <c r="M29" s="138" t="s">
+        <v>171</v>
+      </c>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="139"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17263,14 +17708,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="97"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="99"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17282,14 +17727,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="97"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="99"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17301,14 +17746,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="97"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="99"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17320,14 +17765,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="97"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="99"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17339,14 +17784,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="97"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="99"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -17358,14 +17803,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="98"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="100"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17422,7 +17867,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17443,26 +17888,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -17473,10 +17918,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P1" s="19">
-        <v>42927</v>
+        <v>42930</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17524,7 +17969,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -17542,25 +17987,25 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="93">
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="95">
         <v>1</v>
       </c>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="139"/>
-      <c r="K6" s="139"/>
-      <c r="L6" s="146"/>
+      <c r="I6" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="89"/>
       <c r="M6" s="145"/>
       <c r="N6" s="145"/>
       <c r="O6" s="145"/>
@@ -17568,25 +18013,25 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="139" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="146"/>
+      <c r="I7" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="89"/>
       <c r="M7" s="145"/>
       <c r="N7" s="145"/>
       <c r="O7" s="145"/>
@@ -17789,7 +18234,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -18025,7 +18470,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -18192,17 +18637,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18221,8 +18666,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18243,26 +18688,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="H1" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -18273,10 +18718,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="P1" s="19">
-        <v>42927</v>
+        <v>42930</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18304,7 +18749,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -18324,7 +18769,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18365,7 +18810,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -18387,24 +18832,24 @@
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="146" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="146"/>
+      <c r="G8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="141"/>
-      <c r="G8" s="35" t="s">
+      <c r="H8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="141" t="s">
+      <c r="J8" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -18418,24 +18863,24 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="112" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="114"/>
+      <c r="E9" s="114" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="116"/>
       <c r="G9" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="112" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="113"/>
-      <c r="L9" s="114"/>
+        <v>117</v>
+      </c>
+      <c r="J9" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="115"/>
+      <c r="L9" s="116"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -18449,22 +18894,22 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="112" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="114"/>
+      <c r="E10" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="116"/>
       <c r="G10" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="112" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="113"/>
-      <c r="L10" s="114"/>
+      <c r="J10" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="115"/>
+      <c r="L10" s="116"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -18478,20 +18923,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="112" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="114"/>
+      <c r="E11" s="114" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="116"/>
       <c r="G11" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -18505,20 +18950,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="114"/>
+      <c r="E12" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="116"/>
       <c r="G12" s="31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I12" s="31"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -18532,14 +18977,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="116"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -18553,14 +18998,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="116"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="116"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -18574,14 +19019,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="116"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="114"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="116"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -18595,14 +19040,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="116"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="114"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="116"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -18616,14 +19061,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="116"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="116"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -18637,14 +19082,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="114"/>
+      <c r="E18" s="114"/>
+      <c r="F18" s="116"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="114"/>
+      <c r="J18" s="114"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="116"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -18658,14 +19103,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="116"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="116"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -18679,14 +19124,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="116"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="114"/>
+      <c r="J20" s="114"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="116"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -18700,14 +19145,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="116"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -18721,14 +19166,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="114"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="116"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -18742,14 +19187,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -18763,14 +19208,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="112"/>
-      <c r="F24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="116"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -18784,14 +19229,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="116"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -18805,14 +19250,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="116"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -19072,12 +19517,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19094,25 +19552,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19131,7 +19576,7 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -19149,26 +19594,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -19179,7 +19624,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -19207,10 +19652,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -19230,7 +19675,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>5</v>
@@ -19253,7 +19698,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -19290,7 +19735,7 @@
       <c r="A8" s="15"/>
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>6</v>
@@ -19313,7 +19758,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="1"/>
       <c r="D9" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -19333,10 +19778,10 @@
       <c r="B10" s="16"/>
       <c r="C10" s="1"/>
       <c r="D10" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -19355,10 +19800,10 @@
       <c r="B11" s="16"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -19377,10 +19822,10 @@
       <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -19416,7 +19861,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>8</v>
@@ -19439,7 +19884,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -19459,7 +19904,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -19683,10 +20128,10 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -19706,7 +20151,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -19892,7 +20337,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -19962,37 +20407,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -20020,7 +20465,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>12</v>
@@ -20043,7 +20488,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -20082,22 +20527,22 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="121" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="121" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20117,20 +20562,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="118" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="120"/>
-      <c r="G8" s="118" t="s">
+      <c r="E8" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="120"/>
-      <c r="I8" s="118" t="s">
+      <c r="F8" s="121"/>
+      <c r="G8" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119"/>
-      <c r="L8" s="120"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="121"/>
       <c r="M8" s="23" t="s">
         <v>21</v>
       </c>
@@ -20150,18 +20595,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="118" t="s">
-        <v>94</v>
-      </c>
-      <c r="H9" s="120"/>
-      <c r="I9" s="118" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="119"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="120" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="121"/>
       <c r="M9" s="23" t="s">
         <v>22</v>
       </c>
@@ -20181,18 +20626,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="118" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="118" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="120" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="120" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="121"/>
       <c r="M10" s="23" t="s">
         <v>22</v>
       </c>
@@ -20200,7 +20645,7 @@
         <v>24</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P10" s="9"/>
     </row>
@@ -20212,18 +20657,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="118" t="s">
-        <v>156</v>
-      </c>
-      <c r="H11" s="120"/>
-      <c r="I11" s="118" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="120"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="121"/>
       <c r="M11" s="23" t="s">
         <v>20</v>
       </c>
@@ -20243,20 +20688,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="118" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="118" t="s">
+      <c r="E12" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="120"/>
-      <c r="I12" s="118" t="s">
+      <c r="F12" s="121"/>
+      <c r="G12" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="119"/>
-      <c r="K12" s="119"/>
-      <c r="L12" s="120"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="23" t="s">
         <v>22</v>
       </c>
@@ -20264,7 +20709,7 @@
         <v>23</v>
       </c>
       <c r="O12" s="23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P12" s="9"/>
     </row>
@@ -20276,18 +20721,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="120"/>
-      <c r="I13" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="119"/>
-      <c r="K13" s="119"/>
-      <c r="L13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="121"/>
+      <c r="I13" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="23" t="s">
         <v>20</v>
       </c>
@@ -20307,20 +20752,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="121"/>
+      <c r="G14" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="121"/>
+      <c r="I14" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="118" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="120"/>
-      <c r="I14" s="118" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="120"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="121"/>
       <c r="M14" s="23" t="s">
         <v>22</v>
       </c>
@@ -20340,18 +20785,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="118"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="118" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="120"/>
-      <c r="I15" s="118" t="s">
-        <v>159</v>
-      </c>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="120" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="121"/>
+      <c r="I15" s="120" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="23" t="s">
         <v>21</v>
       </c>
@@ -20371,18 +20816,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="118"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="118" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="120"/>
-      <c r="I16" s="118" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="121"/>
+      <c r="I16" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="121"/>
       <c r="M16" s="23" t="s">
         <v>22</v>
       </c>
@@ -20390,7 +20835,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P16" s="9"/>
     </row>
@@ -20402,18 +20847,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="118"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="118" t="s">
-        <v>145</v>
-      </c>
-      <c r="H17" s="120"/>
-      <c r="I17" s="118" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" s="121"/>
+      <c r="I17" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="121"/>
       <c r="M17" s="23" t="s">
         <v>20</v>
       </c>
@@ -20433,18 +20878,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="118"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="118" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="121"/>
+      <c r="I18" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="120"/>
-      <c r="I18" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="120"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="121"/>
       <c r="M18" s="23" t="s">
         <v>20</v>
       </c>
@@ -20464,14 +20909,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="118"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="121"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -20485,14 +20930,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="118"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -20506,14 +20951,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="121"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -20524,14 +20969,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -20870,23 +21315,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -20903,23 +21348,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -20967,26 +21412,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -20997,7 +21442,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -21025,10 +21470,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -21048,10 +21493,10 @@
       <c r="A5" s="15"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -21070,7 +21515,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -21089,24 +21534,24 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="132" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -21115,21 +21560,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="74"/>
-      <c r="G8" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="72"/>
+      <c r="C8" s="127" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="128"/>
+      <c r="E8" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -21139,21 +21584,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="125" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="126"/>
-      <c r="E9" s="71" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="82" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="83"/>
+      <c r="C9" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="128"/>
+      <c r="E9" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="81"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -21163,21 +21608,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="125" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="126"/>
-      <c r="E10" s="71" t="s">
+      <c r="C10" s="127" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="72"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -21187,21 +21632,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="125" t="s">
-        <v>165</v>
-      </c>
-      <c r="D11" s="126"/>
-      <c r="E11" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
+      <c r="C11" s="127" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -21211,21 +21656,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="125" t="s">
+      <c r="C12" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="128"/>
+      <c r="E12" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -21235,15 +21680,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21253,15 +21698,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21271,18 +21716,18 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -21291,15 +21736,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="132"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="132"/>
+      <c r="K16" s="132"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -21328,7 +21773,7 @@
       <c r="A18" s="15"/>
       <c r="B18" s="1"/>
       <c r="C18" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>29</v>
@@ -21746,11 +22191,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E13:F13"/>
@@ -21759,11 +22204,11 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -21787,8 +22232,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21805,37 +22250,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -21863,7 +22308,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>32</v>
@@ -21885,7 +22330,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -21923,10 +22368,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -22575,26 +23020,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -22605,7 +23050,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -22633,7 +23078,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>32</v>
@@ -22655,7 +23100,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -22693,10 +23138,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -23327,8 +23772,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23345,37 +23790,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="70" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="70" t="s">
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="70" t="s">
+      <c r="M1" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -23403,7 +23848,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>32</v>
@@ -23425,7 +23870,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -23463,10 +23908,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -24115,37 +24560,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -24173,7 +24618,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>32</v>
@@ -24195,7 +24640,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -24233,10 +24678,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -24885,37 +25330,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112" t="str">
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="87" t="s">
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="87" t="s">
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" s="87" t="s">
+      <c r="M1" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -24943,7 +25388,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>32</v>
@@ -24965,7 +25410,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25003,10 +25448,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2659,31 +2659,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2695,10 +2695,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2728,13 +2728,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13128,16 +13128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>579437</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13146,8 +13146,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="846138" y="1430338"/>
-          <a:ext cx="1776412" cy="303213"/>
+          <a:off x="2746375" y="1611312"/>
+          <a:ext cx="1770062" cy="309563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13187,15 +13187,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198437</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13204,8 +13204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="827087" y="1765300"/>
-          <a:ext cx="3540125" cy="498475"/>
+          <a:off x="761999" y="1539875"/>
+          <a:ext cx="1928814" cy="452438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13236,7 +13236,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>追加に失敗しました</a:t>
           </a:r>
         </a:p>
@@ -13313,16 +13313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>436563</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13331,8 +13331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="693738" y="1411288"/>
-          <a:ext cx="509587" cy="303213"/>
+          <a:off x="2817813" y="1643063"/>
+          <a:ext cx="1770062" cy="309563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13372,15 +13372,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198437</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>404812</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468313</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13389,8 +13389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="684212" y="1746250"/>
-          <a:ext cx="863600" cy="498475"/>
+          <a:off x="762000" y="1571625"/>
+          <a:ext cx="2087563" cy="388938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13421,7 +13421,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>避難所を追加しました</a:t>
           </a:r>
         </a:p>
@@ -17987,11 +17987,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="95">
         <v>1</v>
       </c>
@@ -18000,24 +18000,24 @@
       <c r="H6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
       <c r="L6" s="89"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="95" t="s">
         <v>103</v>
       </c>
@@ -18026,15 +18026,15 @@
       <c r="H7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -18637,17 +18637,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19517,25 +19517,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19552,12 +19539,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20529,20 +20529,20 @@
       <c r="D7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="124"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20562,20 +20562,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="120" t="s">
+      <c r="F8" s="125"/>
+      <c r="G8" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="120" t="s">
+      <c r="H8" s="125"/>
+      <c r="I8" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="121"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>21</v>
       </c>
@@ -20595,18 +20595,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="120" t="s">
+      <c r="E9" s="123"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="120" t="s">
+      <c r="H9" s="125"/>
+      <c r="I9" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="121"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>22</v>
       </c>
@@ -20626,18 +20626,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="120" t="s">
+      <c r="E10" s="123"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="120" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="121"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>22</v>
       </c>
@@ -20659,16 +20659,16 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="120" t="s">
+      <c r="G11" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="120" t="s">
+      <c r="H11" s="125"/>
+      <c r="I11" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="121"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
         <v>20</v>
       </c>
@@ -20688,20 +20688,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="120" t="s">
+      <c r="F12" s="125"/>
+      <c r="G12" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="120" t="s">
+      <c r="H12" s="125"/>
+      <c r="I12" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="121"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="23" t="s">
         <v>22</v>
       </c>
@@ -20721,18 +20721,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="120" t="s">
+      <c r="E13" s="123"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="120" t="s">
+      <c r="H13" s="125"/>
+      <c r="I13" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="121"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="23" t="s">
         <v>20</v>
       </c>
@@ -20752,20 +20752,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="120" t="s">
+      <c r="F14" s="125"/>
+      <c r="G14" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="120" t="s">
+      <c r="H14" s="125"/>
+      <c r="I14" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="121"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="23" t="s">
         <v>22</v>
       </c>
@@ -20785,18 +20785,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="120" t="s">
+      <c r="E15" s="123"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="120" t="s">
+      <c r="H15" s="125"/>
+      <c r="I15" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="121"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="23" t="s">
         <v>21</v>
       </c>
@@ -20816,18 +20816,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="120" t="s">
+      <c r="E16" s="123"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="121"/>
-      <c r="I16" s="120" t="s">
+      <c r="H16" s="125"/>
+      <c r="I16" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="121"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="23" t="s">
         <v>22</v>
       </c>
@@ -20847,18 +20847,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="120" t="s">
+      <c r="E17" s="123"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="120" t="s">
+      <c r="H17" s="125"/>
+      <c r="I17" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="121"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="23" t="s">
         <v>20</v>
       </c>
@@ -20878,18 +20878,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="120" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="121"/>
-      <c r="I18" s="120" t="s">
+      <c r="H18" s="125"/>
+      <c r="I18" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="121"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="23" t="s">
         <v>20</v>
       </c>
@@ -20909,14 +20909,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="121"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -20930,14 +20930,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="121"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -20951,14 +20951,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="121"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -20969,14 +20969,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21315,23 +21315,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21348,23 +21348,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21538,17 +21538,17 @@
         <v>34</v>
       </c>
       <c r="D7" s="134"/>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="133" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>41</v>
@@ -21560,10 +21560,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="128"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="69" t="s">
         <v>74</v>
       </c>
@@ -21584,10 +21584,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="69" t="s">
         <v>122</v>
       </c>
@@ -21608,10 +21608,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="128"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="69" t="s">
         <v>75</v>
       </c>
@@ -21632,10 +21632,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="69" t="s">
         <v>149</v>
       </c>
@@ -21656,10 +21656,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="128"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="74" t="s">
         <v>163</v>
       </c>
@@ -21684,11 +21684,11 @@
       <c r="D13" s="129"/>
       <c r="E13" s="130"/>
       <c r="F13" s="131"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21702,11 +21702,11 @@
       <c r="D14" s="129"/>
       <c r="E14" s="130"/>
       <c r="F14" s="131"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21720,11 +21720,11 @@
       <c r="D15" s="129"/>
       <c r="E15" s="130"/>
       <c r="F15" s="131"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>46</v>
@@ -21740,11 +21740,11 @@
       <c r="D16" s="129"/>
       <c r="E16" s="130"/>
       <c r="F16" s="131"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="132"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -22191,19 +22191,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -22214,6 +22201,19 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2659,31 +2659,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2695,13 +2698,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2728,13 +2728,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13790,7 +13790,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>管理者のみがアクセスできるよう、顧客</a:t>
+            <a:t>管理者のみがアクセスできるように</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -13802,10 +13802,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>,</a:t>
+            <a:t>, </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -13814,19 +13814,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面とは別で用意する</a:t>
+            <a:t>利用者画面とは別で用意する</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -16339,7 +16327,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -17987,11 +17975,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
       <c r="E6" s="95">
         <v>1</v>
       </c>
@@ -18000,24 +17988,24 @@
       <c r="H6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="89"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="95" t="s">
         <v>103</v>
       </c>
@@ -18026,15 +18014,15 @@
       <c r="H7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -18637,17 +18625,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18666,7 +18654,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -19517,12 +19505,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19539,25 +19540,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20529,20 +20517,20 @@
       <c r="D7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="120" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="120" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20562,20 +20550,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="120" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="123" t="s">
+      <c r="F8" s="121"/>
+      <c r="G8" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="123" t="s">
+      <c r="H8" s="121"/>
+      <c r="I8" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="121"/>
       <c r="M8" s="23" t="s">
         <v>21</v>
       </c>
@@ -20595,18 +20583,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="123" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="123" t="s">
+      <c r="H9" s="121"/>
+      <c r="I9" s="120" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="121"/>
       <c r="M9" s="23" t="s">
         <v>22</v>
       </c>
@@ -20626,18 +20614,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="123" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="123" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="121"/>
       <c r="M10" s="23" t="s">
         <v>22</v>
       </c>
@@ -20659,16 +20647,16 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="123" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="121"/>
       <c r="M11" s="23" t="s">
         <v>20</v>
       </c>
@@ -20688,20 +20676,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123" t="s">
+      <c r="F12" s="121"/>
+      <c r="G12" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="123" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="120" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="23" t="s">
         <v>22</v>
       </c>
@@ -20721,18 +20709,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="123" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="123" t="s">
+      <c r="H13" s="121"/>
+      <c r="I13" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="23" t="s">
         <v>20</v>
       </c>
@@ -20752,20 +20740,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="125"/>
-      <c r="G14" s="123" t="s">
+      <c r="F14" s="121"/>
+      <c r="G14" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="123" t="s">
+      <c r="H14" s="121"/>
+      <c r="I14" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="121"/>
       <c r="M14" s="23" t="s">
         <v>22</v>
       </c>
@@ -20785,18 +20773,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="123"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="123" t="s">
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="123" t="s">
+      <c r="H15" s="121"/>
+      <c r="I15" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="23" t="s">
         <v>21</v>
       </c>
@@ -20816,18 +20804,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="123" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="123" t="s">
+      <c r="H16" s="121"/>
+      <c r="I16" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="121"/>
       <c r="M16" s="23" t="s">
         <v>22</v>
       </c>
@@ -20847,18 +20835,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="123"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="123" t="s">
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="120" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="123" t="s">
+      <c r="H17" s="121"/>
+      <c r="I17" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="121"/>
       <c r="M17" s="23" t="s">
         <v>20</v>
       </c>
@@ -20878,18 +20866,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="123" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="123" t="s">
+      <c r="H18" s="121"/>
+      <c r="I18" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="121"/>
       <c r="M18" s="23" t="s">
         <v>20</v>
       </c>
@@ -20909,14 +20897,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="125"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="121"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -20930,14 +20918,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -20951,14 +20939,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="121"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -20969,14 +20957,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21315,23 +21303,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21348,23 +21336,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21534,21 +21522,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="128" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>41</v>
@@ -21560,10 +21548,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="69" t="s">
         <v>74</v>
       </c>
@@ -21584,10 +21572,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="69" t="s">
         <v>122</v>
       </c>
@@ -21608,10 +21596,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="127" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="69" t="s">
         <v>75</v>
       </c>
@@ -21632,10 +21620,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="69" t="s">
         <v>149</v>
       </c>
@@ -21656,10 +21644,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="133"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="74" t="s">
         <v>163</v>
       </c>
@@ -21680,15 +21668,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21698,15 +21686,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21716,15 +21704,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>46</v>
@@ -21736,15 +21724,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -22191,6 +22179,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -22201,19 +22202,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22232,7 +22220,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -23002,7 +22990,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2659,34 +2659,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2698,10 +2695,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2728,13 +2728,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9539,9 +9539,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -9677,9 +9675,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -9805,6 +9801,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10865,15 +10864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>103189</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>690563</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10882,23 +10881,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="722314" y="1409700"/>
+          <a:off x="698501" y="1433512"/>
           <a:ext cx="2349499" cy="217488"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -11027,16 +11020,10 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -11155,6 +11142,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -11311,13 +11301,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>103372</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146704</xdr:rowOff>
+      <xdr:rowOff>170517</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>717732</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>30814</xdr:rowOff>
+      <xdr:rowOff>54627</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11326,7 +11316,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3262497" y="1384954"/>
+          <a:off x="3262497" y="1408767"/>
           <a:ext cx="2170110" cy="233360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11383,15 +11373,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>187232</xdr:colOff>
+      <xdr:colOff>198438</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>91514</xdr:rowOff>
+      <xdr:rowOff>102719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>649564</xdr:colOff>
+      <xdr:colOff>660770</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>24279</xdr:rowOff>
+      <xdr:rowOff>35484</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11400,7 +11390,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="400144" y="1458632"/>
+          <a:off x="411350" y="1469837"/>
           <a:ext cx="7062596" cy="3798794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11563,9 +11553,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx2"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -12030,9 +12018,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -12493,14 +12479,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>101122</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>74574</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>260237</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>126876</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138082</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12509,7 +12495,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2521593" y="2954486"/>
+          <a:off x="2521593" y="3133780"/>
           <a:ext cx="2512350" cy="220390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13054,6 +13040,176 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108791</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>69101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3313673" y="2780925"/>
+          <a:ext cx="933372" cy="239744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位置特定</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15557,7 +15713,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -17975,11 +18131,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="95">
         <v>1</v>
       </c>
@@ -17988,24 +18144,24 @@
       <c r="H6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="145" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
       <c r="L6" s="89"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="95" t="s">
         <v>103</v>
       </c>
@@ -18014,15 +18170,15 @@
       <c r="H7" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -18625,17 +18781,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18654,7 +18810,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -19505,25 +19661,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19540,12 +19683,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20517,20 +20673,20 @@
       <c r="D7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="124"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20550,20 +20706,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="120" t="s">
+      <c r="F8" s="125"/>
+      <c r="G8" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="120" t="s">
+      <c r="H8" s="125"/>
+      <c r="I8" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="121"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>21</v>
       </c>
@@ -20583,18 +20739,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="120" t="s">
+      <c r="E9" s="123"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="120" t="s">
+      <c r="H9" s="125"/>
+      <c r="I9" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="121"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>22</v>
       </c>
@@ -20614,18 +20770,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="120" t="s">
+      <c r="E10" s="123"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="120" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="121"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>22</v>
       </c>
@@ -20647,16 +20803,16 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="120" t="s">
+      <c r="G11" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="120" t="s">
+      <c r="H11" s="125"/>
+      <c r="I11" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="121"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
         <v>20</v>
       </c>
@@ -20676,20 +20832,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="120" t="s">
+      <c r="F12" s="125"/>
+      <c r="G12" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="120" t="s">
+      <c r="H12" s="125"/>
+      <c r="I12" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="121"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="23" t="s">
         <v>22</v>
       </c>
@@ -20709,18 +20865,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="120" t="s">
+      <c r="E13" s="123"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="120" t="s">
+      <c r="H13" s="125"/>
+      <c r="I13" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="121"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="23" t="s">
         <v>20</v>
       </c>
@@ -20740,20 +20896,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="120" t="s">
+      <c r="E14" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="120" t="s">
+      <c r="F14" s="125"/>
+      <c r="G14" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="120" t="s">
+      <c r="H14" s="125"/>
+      <c r="I14" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="121"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="23" t="s">
         <v>22</v>
       </c>
@@ -20773,18 +20929,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="120" t="s">
+      <c r="E15" s="123"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="120" t="s">
+      <c r="H15" s="125"/>
+      <c r="I15" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="121"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="23" t="s">
         <v>21</v>
       </c>
@@ -20804,18 +20960,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="120" t="s">
+      <c r="E16" s="123"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="121"/>
-      <c r="I16" s="120" t="s">
+      <c r="H16" s="125"/>
+      <c r="I16" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="121"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="23" t="s">
         <v>22</v>
       </c>
@@ -20835,18 +20991,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="120" t="s">
+      <c r="E17" s="123"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="120" t="s">
+      <c r="H17" s="125"/>
+      <c r="I17" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="121"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="23" t="s">
         <v>20</v>
       </c>
@@ -20866,18 +21022,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="120" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="121"/>
-      <c r="I18" s="120" t="s">
+      <c r="H18" s="125"/>
+      <c r="I18" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="121"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="23" t="s">
         <v>20</v>
       </c>
@@ -20897,14 +21053,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="121"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -20918,14 +21074,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="121"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -20939,14 +21095,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="121"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -20957,14 +21113,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21303,23 +21459,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21336,23 +21492,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21522,21 +21678,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="123" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="134" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>41</v>
@@ -21548,10 +21704,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="132" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="128"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="69" t="s">
         <v>74</v>
       </c>
@@ -21572,10 +21728,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="69" t="s">
         <v>122</v>
       </c>
@@ -21596,10 +21752,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="D10" s="128"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="69" t="s">
         <v>75</v>
       </c>
@@ -21620,10 +21776,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="69" t="s">
         <v>149</v>
       </c>
@@ -21644,10 +21800,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="128"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="74" t="s">
         <v>163</v>
       </c>
@@ -21668,15 +21824,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21686,15 +21842,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21704,15 +21860,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>46</v>
@@ -21724,15 +21880,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -22179,19 +22335,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -22202,6 +22345,19 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23760,8 +23916,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24530,8 +24686,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="179">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -248,19 +248,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力情報送信</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -843,156 +830,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>避難所追加</t>
-    <rPh sb="0" eb="3">
-      <t>ヒナンジョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザが入力した住所を緯度経度変換処理に引き渡す</t>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イド</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイド</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>災害情報を表示</t>
-    <rPh sb="0" eb="4">
-      <t>サイガイジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TwitterAPIを用いて災害情報を取得</t>
-    <rPh sb="11" eb="12">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>サイガイジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>災害情報の取得</t>
-    <rPh sb="0" eb="4">
-      <t>サイガイジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>災害情報</t>
     <rPh sb="0" eb="4">
       <t>サイガイジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>位置情報を用いて現在地とその周辺のマップを表示</t>
-    <rPh sb="0" eb="2">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ゲンザイチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュウヘン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップを表示</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ表示ボタンを押したユーザの位置情報を取得し、成功の場合マップを表示、失敗した場合失敗のモーダルウィンドウを表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>イチジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>位置情報を取得</t>
-    <rPh sb="0" eb="4">
-      <t>イチジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1134,10 +974,6 @@
     <t>大</t>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>災害情報</t>
     <rPh sb="0" eb="2">
       <t>サイガイ</t>
@@ -1642,19 +1478,7 @@
     <t>避難所名と緯度経度をデータベースに追加</t>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1729,6 +1553,177 @@
   </si>
   <si>
     <t>承認印欄（2017/07/14）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力情報送信</t>
+  </si>
+  <si>
+    <t>避難所追加</t>
+  </si>
+  <si>
+    <t>災害情報を表示</t>
+  </si>
+  <si>
+    <t>TwitterAPIを用いて災害情報を取得</t>
+  </si>
+  <si>
+    <t>災害情報の取得</t>
+  </si>
+  <si>
+    <t>災害情報画面を表示</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブをクリックした際に災害情報画面を表示</t>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避難所追加画面を表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブをクリックした際に避難所追加画面を表示</t>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>位置情報を取得し, 現在地とその周辺のマップを表示</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップとしてマップ画面を表示</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在地をマップ上に表示</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンザイチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ画面を表示</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザが入力した住所を緯度経度変換処理に引き渡す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5～7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8～11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ画面（管理者）</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カンリシャ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2659,31 +2654,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2695,13 +2693,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2728,13 +2723,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3139,71 +3134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>310592</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89298</xdr:rowOff>
+      <xdr:colOff>366748</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>624965</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>102964</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="105" name="直線矢印コネクタ 104"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="103" idx="3"/>
-          <a:endCxn id="104" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2706725" y="3705821"/>
-          <a:ext cx="1095720" cy="13666"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485810</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>89296</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466861</xdr:colOff>
+      <xdr:colOff>572989</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>110728</xdr:rowOff>
+      <xdr:rowOff>81855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3212,8 +3151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2881943" y="3021210"/>
-          <a:ext cx="762398" cy="534889"/>
+          <a:off x="2762881" y="2909588"/>
+          <a:ext cx="987588" cy="617638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3652,15 +3591,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>280751</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66973</xdr:rowOff>
+      <xdr:colOff>288192</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>126505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>273384</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>115233</xdr:rowOff>
+      <xdr:colOff>453926</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>37209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3669,8 +3608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5802274" y="3341192"/>
-          <a:ext cx="1250231" cy="732869"/>
+          <a:off x="5809715" y="3229571"/>
+          <a:ext cx="1423332" cy="937618"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3817,72 +3756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>541274</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>89298</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>280751</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>91104</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="104" idx="3"/>
-          <a:endCxn id="109" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5281450" y="3705821"/>
-          <a:ext cx="520824" cy="1806"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>786747</xdr:colOff>
+      <xdr:colOff>756982</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>3371</xdr:rowOff>
+      <xdr:rowOff>70344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>233072</xdr:colOff>
+      <xdr:colOff>203307</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>88955</xdr:rowOff>
+      <xdr:rowOff>155928</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3891,7 +3774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308270" y="4133351"/>
+          <a:off x="6278505" y="4200324"/>
           <a:ext cx="703923" cy="256737"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4016,15 +3899,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>310590</xdr:colOff>
+      <xdr:colOff>251059</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>7442</xdr:rowOff>
+      <xdr:rowOff>22325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>94790</xdr:colOff>
+      <xdr:colOff>35259</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>66974</xdr:rowOff>
+      <xdr:rowOff>81857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4033,7 +3916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2706723" y="3795118"/>
+          <a:off x="2647192" y="3810001"/>
           <a:ext cx="1346895" cy="230684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4079,15 +3962,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>334865</xdr:colOff>
+      <xdr:colOff>386954</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>52090</xdr:rowOff>
+      <xdr:rowOff>37207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>535781</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>14882</xdr:rowOff>
+      <xdr:colOff>587870</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171152</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4096,7 +3979,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1168303" y="5208985"/>
+          <a:off x="1220392" y="5194102"/>
           <a:ext cx="6146599" cy="1503163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4131,7 +4014,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>189197</xdr:colOff>
+      <xdr:colOff>81856</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>89466</xdr:rowOff>
     </xdr:from>
@@ -4139,7 +4022,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>260983</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>93966</xdr:rowOff>
+      <xdr:rowOff>74414</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4148,8 +4031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1803982" y="5759818"/>
-          <a:ext cx="853134" cy="346804"/>
+          <a:off x="1696641" y="5759818"/>
+          <a:ext cx="960475" cy="327252"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4301,13 +4184,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>155357</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>158819</xdr:rowOff>
+      <xdr:rowOff>158818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>60422</xdr:colOff>
+      <xdr:colOff>528340</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>26536</xdr:rowOff>
+      <xdr:rowOff>66972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4316,8 +4199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3332837" y="6171475"/>
-          <a:ext cx="686413" cy="381174"/>
+          <a:off x="3332837" y="6171474"/>
+          <a:ext cx="1154331" cy="421611"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4467,15 +4350,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27407</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>42290</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>156270</xdr:colOff>
+      <xdr:colOff>602754</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>137035</xdr:rowOff>
+      <xdr:rowOff>22324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4484,8 +4367,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3204887" y="5447109"/>
-          <a:ext cx="910211" cy="360278"/>
+          <a:off x="3219770" y="5328046"/>
+          <a:ext cx="1341812" cy="364630"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4639,16 +4522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>578620</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>77042</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176784</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>210017</xdr:colOff>
+      <xdr:colOff>997149</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>2380</xdr:rowOff>
+      <xdr:rowOff>99118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4657,8 +4540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4537448" y="5405089"/>
-          <a:ext cx="1194092" cy="1123404"/>
+          <a:off x="4916960" y="5501827"/>
+          <a:ext cx="1601712" cy="1123404"/>
         </a:xfrm>
         <a:prstGeom prst="mathEqual">
           <a:avLst>
@@ -4824,15 +4707,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>156270</xdr:colOff>
+      <xdr:colOff>602754</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>128049</xdr:rowOff>
+      <xdr:rowOff>11162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>394318</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>93496</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>196293</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19082</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4844,13 +4727,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4115098" y="5627248"/>
-          <a:ext cx="1019396" cy="136600"/>
+          <a:off x="4561582" y="5510361"/>
+          <a:ext cx="1156234" cy="350225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -454"/>
-            <a:gd name="adj2" fmla="val 2318"/>
+            <a:gd name="adj1" fmla="val 15368"/>
+            <a:gd name="adj2" fmla="val -468"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4881,15 +4764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>322043</xdr:colOff>
+      <xdr:colOff>322044</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>102462</xdr:rowOff>
+      <xdr:rowOff>102463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>580431</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133945</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>126505</xdr:rowOff>
+      <xdr:rowOff>156269</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4898,8 +4781,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2718176" y="5943966"/>
-          <a:ext cx="1821083" cy="24043"/>
+          <a:off x="2718177" y="5943967"/>
+          <a:ext cx="2155944" cy="53806"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4934,13 +4817,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>260983</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>128049</xdr:rowOff>
+      <xdr:rowOff>11162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27407</xdr:colOff>
+      <xdr:colOff>42290</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>91716</xdr:rowOff>
+      <xdr:rowOff>81940</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4952,8 +4835,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2657116" y="5627248"/>
-          <a:ext cx="547771" cy="305972"/>
+          <a:off x="2657116" y="5510361"/>
+          <a:ext cx="562654" cy="413083"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4988,13 +4871,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>260983</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>91716</xdr:rowOff>
+      <xdr:rowOff>81940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>155357</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>7101</xdr:rowOff>
+      <xdr:rowOff>27319</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5006,8 +4889,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2657116" y="5933220"/>
-          <a:ext cx="675721" cy="428842"/>
+          <a:off x="2657116" y="5923444"/>
+          <a:ext cx="675721" cy="458836"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5037,44 +4920,38 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114899</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19210</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>310592</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624965</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>152079</xdr:rowOff>
+      <xdr:rowOff>102964</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="カギ線コネクタ 31"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="2"/>
-          <a:endCxn id="40" idx="0"/>
+          <a:stCxn id="103" idx="3"/>
+          <a:endCxn id="104" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="800640" y="3551683"/>
-          <a:ext cx="300958" cy="7566"/>
+        <a:xfrm flipV="1">
+          <a:off x="2706725" y="3705821"/>
+          <a:ext cx="1095720" cy="13666"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2128"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="arrow"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5096,37 +4973,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>122466</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>51227</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>541274</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>81857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>141332</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>288192</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>89298</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="2"/>
-          <a:endCxn id="37" idx="0"/>
+          <a:stCxn id="104" idx="3"/>
+          <a:endCxn id="109" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="726611" y="4505737"/>
-          <a:ext cx="475449" cy="18866"/>
+        <a:xfrm flipV="1">
+          <a:off x="5281450" y="3698380"/>
+          <a:ext cx="528265" cy="7441"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 4545"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="arrow"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -5146,18 +5022,23 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
+      <xdr:colOff>65634</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>38421</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>32931</xdr:colOff>
+      <xdr:colOff>8918</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
+      <xdr:rowOff>139272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5166,8 +5047,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="302559" y="4751294"/>
-          <a:ext cx="1366431" cy="437028"/>
+          <a:off x="273743" y="4768904"/>
+          <a:ext cx="1352024" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -6146,162 +6027,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>84047</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>84487</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="76" name="カギ線コネクタ 75"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="87" idx="2"/>
-          <a:endCxn id="74" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4079963" y="1872763"/>
-          <a:ext cx="381001" cy="440"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>84047</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123263</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>84489</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>146636</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="カギ線コネクタ 76"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="74" idx="2"/>
-          <a:endCxn id="93" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="4090690" y="2680065"/>
-          <a:ext cx="359549" cy="442"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>94909</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48028</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>100054</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="カギ線コネクタ 78"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="82" idx="2"/>
-          <a:endCxn id="80" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4061163" y="4494189"/>
-          <a:ext cx="445032" cy="5145"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>203308</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -6394,15 +6119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>128067</xdr:colOff>
+      <xdr:colOff>120063</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142475</xdr:rowOff>
+      <xdr:rowOff>118462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>856452</xdr:colOff>
+      <xdr:colOff>848448</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>48027</xdr:rowOff>
+      <xdr:rowOff>24014</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6411,7 +6136,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3529853" y="3696341"/>
+          <a:off x="3521849" y="3672328"/>
           <a:ext cx="1512796" cy="577904"/>
           <a:chOff x="328089" y="3883640"/>
           <a:chExt cx="1367117" cy="571501"/>
@@ -6611,9 +6336,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>856452</xdr:colOff>
+      <xdr:colOff>848448</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:rowOff>71238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -6631,8 +6356,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5042649" y="3985293"/>
-          <a:ext cx="892126" cy="725980"/>
+          <a:off x="5034645" y="3961280"/>
+          <a:ext cx="900130" cy="749993"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6661,9 +6386,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>64035</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>59230</xdr:rowOff>
+      <xdr:colOff>80044</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="317203" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -6673,7 +6398,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5250758" y="3781184"/>
+          <a:off x="5266767" y="3717151"/>
           <a:ext cx="317203" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6791,15 +6516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>946099</xdr:colOff>
+      <xdr:colOff>970112</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>92849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>745275</xdr:colOff>
+      <xdr:colOff>769288</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>52828</xdr:rowOff>
+      <xdr:rowOff>36820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6808,7 +6533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5132296" y="2822281"/>
+          <a:off x="5156309" y="2806273"/>
           <a:ext cx="1584113" cy="448236"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -6991,109 +6716,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>80044</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>25613</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>84489</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>144075</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="カギ線コネクタ 97"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="93" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4041144" y="3468399"/>
-          <a:ext cx="454639" cy="4445"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>761284</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>148878</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>946099</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>164886</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="カギ線コネクタ 102"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="93" idx="3"/>
-          <a:endCxn id="88" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4947481" y="3030391"/>
-          <a:ext cx="184815" cy="16008"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -6302"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>64035</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -7161,58 +6783,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>116063</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>140233</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="122" name="カギ線コネクタ 121"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="121" idx="2"/>
-          <a:endCxn id="52" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="752937" y="2826183"/>
-          <a:ext cx="389963" cy="1163"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7288,58 +6858,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>8006</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>36022</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>185699</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>40023</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="カギ線コネクタ 123"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="123" idx="2"/>
-          <a:endCxn id="121" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1624855" y="2413270"/>
-          <a:ext cx="177693" cy="4001"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>64033</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -7412,36 +6930,494 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>115716</xdr:colOff>
+      <xdr:colOff>117318</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>51228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38421</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="37" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="949755" y="4277446"/>
+          <a:ext cx="5147" cy="491458"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114899</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>116062</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="2"/>
+          <a:endCxn id="52" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="947336" y="2631783"/>
+          <a:ext cx="1163" cy="389963"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>115717</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>68834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>116061</xdr:colOff>
+      <xdr:colOff>116062</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>153684</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="145" name="カギ線コネクタ 144"/>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="137" idx="2"/>
           <a:endCxn id="121" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="737813" y="1984069"/>
-          <a:ext cx="421026" cy="345"/>
+        <a:xfrm>
+          <a:off x="948154" y="1773729"/>
+          <a:ext cx="345" cy="421026"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="arrow"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114899</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152079</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="947336" y="3404987"/>
+          <a:ext cx="7566" cy="300958"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8005</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185698</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>40022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="2"/>
+          <a:endCxn id="121" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1624854" y="2413269"/>
+          <a:ext cx="177693" cy="4001"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84046</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84488</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>146637</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="74" idx="2"/>
+          <a:endCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4270243" y="2500512"/>
+          <a:ext cx="442" cy="359549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84488</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>118462</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="2"/>
+          <a:endCxn id="82" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4270685" y="3243302"/>
+          <a:ext cx="7562" cy="429026"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>92050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24014</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>94909</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="2"/>
+          <a:endCxn id="80" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4278247" y="4250232"/>
+          <a:ext cx="2859" cy="469045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84046</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>84486</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="74" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4270243" y="1682483"/>
+          <a:ext cx="440" cy="381001"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>761284</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>970112</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148878</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="3"/>
+          <a:endCxn id="88" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4947481" y="3030391"/>
+          <a:ext cx="208828" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -7749,8 +7725,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5668289" y="3821205"/>
-          <a:ext cx="1512796" cy="526677"/>
+          <a:off x="5191187" y="3525661"/>
+          <a:ext cx="1393499" cy="487994"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
         </a:xfrm>
@@ -8162,8 +8138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7563970" y="1983440"/>
-          <a:ext cx="952500" cy="381001"/>
+          <a:off x="6937091" y="1826558"/>
+          <a:ext cx="873005" cy="352672"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -9065,58 +9041,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>20171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>593910</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="カギ線コネクタ 48"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="3"/>
-          <a:endCxn id="56" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8852647" y="4076700"/>
-          <a:ext cx="907675" cy="663389"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314262</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -9273,10 +9197,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>62754</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>51548</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>891989</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="415498" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -9286,7 +9210,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6875930" y="5452783"/>
+          <a:off x="6450107" y="4410636"/>
           <a:ext cx="415498" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9348,6 +9272,58 @@
         <a:xfrm flipV="1">
           <a:off x="8886266" y="4740089"/>
           <a:ext cx="874056" cy="661147"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47436"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593910</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="カギ線コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8852647" y="4076700"/>
+          <a:ext cx="907675" cy="663389"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9515,15 +9491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>103189</xdr:colOff>
+      <xdr:colOff>71439</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
+      <xdr:colOff>134938</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>58736</xdr:rowOff>
+      <xdr:rowOff>82549</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9532,8 +9508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="722314" y="1409700"/>
-          <a:ext cx="3381374" cy="236536"/>
+          <a:off x="690564" y="1397000"/>
+          <a:ext cx="3381374" cy="273049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9542,11 +9518,7 @@
           <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9582,15 +9554,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>309563</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>46037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9599,7 +9571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4222750" y="1389063"/>
+          <a:off x="4246563" y="1397001"/>
           <a:ext cx="3325811" cy="236536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9651,13 +9623,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22409</xdr:colOff>
+      <xdr:colOff>38284</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>62566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9668,8 +9640,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="536759" y="1605616"/>
-          <a:ext cx="1615891" cy="280334"/>
+          <a:off x="657409" y="1650066"/>
+          <a:ext cx="6978466" cy="286684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9678,11 +9650,7 @@
           <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -9784,9 +9752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>325438</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>468313</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9796,7 +9764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4045136" y="2167593"/>
-          <a:ext cx="995177" cy="293032"/>
+          <a:ext cx="1138052" cy="277157"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9804,6 +9772,9 @@
         <a:solidFill>
           <a:schemeClr val="tx2"/>
         </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -9825,7 +9796,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ルートを表示</a:t>
@@ -10024,16 +9995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>129804</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>240929</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>32686</xdr:rowOff>
+      <xdr:rowOff>16812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>222251</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>150813</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>87314</xdr:rowOff>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10042,8 +10013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="748929" y="2144061"/>
-          <a:ext cx="1854572" cy="578503"/>
+          <a:off x="1066429" y="2128187"/>
+          <a:ext cx="3021384" cy="586439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10073,7 +10044,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:ln>
@@ -10098,10 +10069,10 @@
       <xdr:rowOff>38288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1127125</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>174624</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>484188</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10111,7 +10082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4286251" y="2149663"/>
-          <a:ext cx="2333624" cy="485586"/>
+          <a:ext cx="2944812" cy="509400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10141,7 +10112,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:ln>
@@ -10449,13 +10420,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>7937</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>158746</xdr:rowOff>
+      <xdr:rowOff>79371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>91048</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:rowOff>39688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10464,8 +10435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="627062" y="1746246"/>
-          <a:ext cx="6988736" cy="238127"/>
+          <a:off x="627062" y="1666871"/>
+          <a:ext cx="6988736" cy="309567"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10518,15 +10489,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:colOff>373063</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>747528</xdr:colOff>
+      <xdr:colOff>707841</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10535,7 +10506,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4349750" y="1468438"/>
+          <a:off x="4310063" y="1404938"/>
           <a:ext cx="3144653" cy="277812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10570,7 +10541,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -10585,15 +10556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>166689</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>55561</xdr:rowOff>
+      <xdr:colOff>119064</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>142876</xdr:colOff>
+      <xdr:colOff>95251</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
+      <xdr:rowOff>80960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10602,7 +10573,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="785814" y="1468436"/>
+          <a:off x="738189" y="1396998"/>
           <a:ext cx="3294062" cy="271462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10637,7 +10608,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -10653,14 +10624,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>373063</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>484188</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>173693</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30818</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10669,7 +10640,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4310063" y="2095500"/>
+          <a:off x="4310063" y="2127250"/>
           <a:ext cx="2921000" cy="2983568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10864,15 +10835,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>79376</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>20637</xdr:rowOff>
+      <xdr:colOff>111126</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>698500</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>71438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10881,8 +10852,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698501" y="1433512"/>
-          <a:ext cx="2349499" cy="217488"/>
+          <a:off x="730251" y="1404938"/>
+          <a:ext cx="2349499" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10996,13 +10967,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22409</xdr:colOff>
+      <xdr:colOff>46222</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>62566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>119063</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -11013,8 +10984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="651059" y="1624666"/>
-          <a:ext cx="7007041" cy="280334"/>
+          <a:off x="665347" y="1650066"/>
+          <a:ext cx="6978466" cy="286684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11125,9 +11096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>325438</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11136,8 +11107,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4070536" y="2132668"/>
-          <a:ext cx="998352" cy="286682"/>
+          <a:off x="4045136" y="2167593"/>
+          <a:ext cx="1130114" cy="261282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11166,7 +11137,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>ルートを表示</a:t>
@@ -11693,7 +11664,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>456637</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>162475</xdr:rowOff>
+      <xdr:rowOff>135733</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11702,8 +11673,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="341313" y="1897320"/>
-          <a:ext cx="1201174" cy="322555"/>
+          <a:off x="411350" y="1882752"/>
+          <a:ext cx="4034581" cy="292452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11811,7 +11782,7 @@
         </a:lstStyle>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -11979,7 +11950,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12145,7 +12116,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
             <a:t>避難所追加</a:t>
           </a:r>
         </a:p>
@@ -12309,7 +12280,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -12963,6 +12934,22 @@
         </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
               <a:ln w="0"/>
@@ -12995,14 +12982,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -13011,14 +12990,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -13027,14 +12998,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
@@ -13343,15 +13306,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>142873</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>309563</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13360,15 +13323,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="761999" y="1539875"/>
-          <a:ext cx="1928814" cy="452438"/>
+          <a:off x="761998" y="1539874"/>
+          <a:ext cx="2794001" cy="492125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -13530,13 +13491,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>158749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>468313</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13545,15 +13506,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="1571625"/>
-          <a:ext cx="2087563" cy="388938"/>
+          <a:off x="762000" y="1571624"/>
+          <a:ext cx="3492500" cy="468313"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -14082,16 +14041,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>202644</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>115331</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>73306</xdr:rowOff>
+      <xdr:rowOff>105055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88716</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127934</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14100,8 +14059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="615394" y="2184681"/>
-          <a:ext cx="1854572" cy="578503"/>
+          <a:off x="940831" y="2216430"/>
+          <a:ext cx="3186669" cy="641070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14131,7 +14090,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:ln>
@@ -14151,15 +14110,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>215716</xdr:colOff>
+      <xdr:colOff>287152</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>78908</xdr:rowOff>
+      <xdr:rowOff>158283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>993590</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>40619</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14168,8 +14127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152716" y="2190283"/>
-          <a:ext cx="2333624" cy="485586"/>
+          <a:off x="4224152" y="2269658"/>
+          <a:ext cx="2951347" cy="508467"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14199,7 +14158,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
               <a:ln>
@@ -14219,15 +14178,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>9341</xdr:colOff>
+      <xdr:colOff>33154</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>40621</xdr:rowOff>
+      <xdr:rowOff>127933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533215</xdr:colOff>
+      <xdr:colOff>557028</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>56496</xdr:rowOff>
+      <xdr:rowOff>143808</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14236,7 +14195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="834841" y="2151996"/>
+          <a:off x="858654" y="2239308"/>
           <a:ext cx="2857499" cy="2984500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14310,7 +14269,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>735388</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>88243</xdr:rowOff>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14320,7 +14279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="493527" y="1786866"/>
-          <a:ext cx="6988736" cy="238127"/>
+          <a:ext cx="6988736" cy="316572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14425,7 +14384,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -14492,7 +14451,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14509,13 +14468,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>239528</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>24745</xdr:rowOff>
+      <xdr:rowOff>119995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>350653</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:rowOff>134938</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14524,7 +14483,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4176528" y="2136120"/>
+          <a:off x="4176528" y="2231370"/>
           <a:ext cx="2921000" cy="2983568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14634,7 +14593,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -14941,7 +14900,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="F1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -14956,7 +14915,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -14972,7 +14931,7 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P1" s="90">
         <v>42930</v>
@@ -14995,7 +14954,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P2" s="102"/>
       <c r="Q2" s="103"/>
@@ -15044,7 +15003,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -15140,7 +15099,7 @@
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="110" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E10" s="110"/>
       <c r="F10" s="110"/>
@@ -15200,7 +15159,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="109"/>
       <c r="G13" s="109"/>
@@ -15317,7 +15276,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
       <c r="F19" s="101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="101"/>
       <c r="H19" s="101"/>
@@ -15514,7 +15473,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="104" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L29" s="105"/>
       <c r="M29" s="105"/>
@@ -15535,15 +15494,15 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="92" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L30" s="93"/>
       <c r="M30" s="93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N30" s="93"/>
       <c r="O30" s="93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P30" s="98"/>
       <c r="Q30" s="50"/>
@@ -15713,7 +15672,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -15746,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
@@ -15755,13 +15714,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -15789,10 +15748,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -15811,7 +15770,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15849,10 +15808,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -16483,8 +16442,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16516,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
@@ -16531,7 +16490,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -16559,10 +16518,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -16581,7 +16540,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -16619,10 +16578,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -17285,7 +17244,7 @@
       <c r="M1" s="48"/>
       <c r="N1" s="48"/>
       <c r="O1" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P1" s="90">
         <v>42930</v>
@@ -17308,7 +17267,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P2" s="102"/>
       <c r="Q2" s="103"/>
@@ -17357,7 +17316,7 @@
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
       <c r="E5" s="107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -17514,7 +17473,7 @@
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
       <c r="E13" s="109" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="109"/>
       <c r="G13" s="109"/>
@@ -17631,7 +17590,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
       <c r="F19" s="137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" s="137"/>
       <c r="H19" s="137"/>
@@ -17809,7 +17768,7 @@
       <c r="I28" s="88"/>
       <c r="J28" s="88"/>
       <c r="K28" s="140" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="L28" s="141"/>
       <c r="M28" s="141"/>
@@ -17830,15 +17789,15 @@
       <c r="I29" s="135"/>
       <c r="J29" s="135"/>
       <c r="K29" s="104" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="L29" s="105"/>
       <c r="M29" s="138" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="N29" s="138"/>
       <c r="O29" s="138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P29" s="139"/>
       <c r="Q29" s="50"/>
@@ -18011,7 +17970,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18047,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
@@ -18062,7 +18021,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -18093,7 +18052,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -18113,7 +18072,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18131,54 +18090,54 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
+      <c r="B6" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
       <c r="E6" s="95">
         <v>1</v>
       </c>
       <c r="F6" s="95"/>
       <c r="G6" s="95"/>
       <c r="H6" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="145" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+        <v>33</v>
+      </c>
+      <c r="I6" s="144" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="89"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="144" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
+      <c r="B7" s="143" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="95" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F7" s="95"/>
       <c r="G7" s="95"/>
       <c r="H7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="145" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+        <v>32</v>
+      </c>
+      <c r="I7" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -18378,7 +18337,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -18614,7 +18573,7 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
@@ -18781,17 +18740,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18847,7 +18806,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
@@ -18862,7 +18821,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -18893,7 +18852,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -18913,7 +18872,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18951,10 +18910,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -18977,20 +18936,20 @@
         <v>13</v>
       </c>
       <c r="E8" s="146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="146"/>
       <c r="G8" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>45</v>
-      </c>
       <c r="J8" s="146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" s="146"/>
       <c r="L8" s="146"/>
@@ -19008,20 +18967,20 @@
         <v>1</v>
       </c>
       <c r="E9" s="114" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F9" s="116"/>
       <c r="G9" s="31" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J9" s="114" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K9" s="115"/>
       <c r="L9" s="116"/>
@@ -19039,18 +18998,18 @@
         <v>2</v>
       </c>
       <c r="E10" s="114" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F10" s="116"/>
       <c r="G10" s="31" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="114" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K10" s="115"/>
       <c r="L10" s="116"/>
@@ -19068,14 +19027,14 @@
         <v>3</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F11" s="116"/>
       <c r="G11" s="31" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="114"/>
@@ -19095,14 +19054,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="114" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F12" s="116"/>
       <c r="G12" s="31" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="114"/>
@@ -19661,12 +19620,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19683,25 +19655,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19721,7 +19680,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19768,7 +19727,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -19796,10 +19755,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -19819,7 +19778,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>5</v>
@@ -19842,7 +19801,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -19879,7 +19838,7 @@
       <c r="A8" s="15"/>
       <c r="B8" s="1"/>
       <c r="C8" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>6</v>
@@ -19902,7 +19861,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="1"/>
       <c r="D9" s="16" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -19922,10 +19881,10 @@
       <c r="B10" s="16"/>
       <c r="C10" s="1"/>
       <c r="D10" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -19944,10 +19903,10 @@
       <c r="B11" s="16"/>
       <c r="C11" s="1"/>
       <c r="D11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -19966,10 +19925,10 @@
       <c r="B12" s="16"/>
       <c r="C12" s="1"/>
       <c r="D12" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -20005,7 +19964,7 @@
       <c r="A14" s="15"/>
       <c r="B14" s="1"/>
       <c r="C14" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>8</v>
@@ -20028,7 +19987,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -20048,7 +20007,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="16" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -20272,10 +20231,10 @@
       <c r="A29" s="15"/>
       <c r="B29" s="1"/>
       <c r="C29" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -20295,7 +20254,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -20481,7 +20440,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -20517,8 +20476,8 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -20534,7 +20493,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I15" sqref="I15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20575,13 +20534,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -20609,7 +20568,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>12</v>
@@ -20632,7 +20591,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -20671,22 +20630,22 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="120" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="120" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20694,7 +20653,7 @@
         <v>18</v>
       </c>
       <c r="O7" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" s="44"/>
     </row>
@@ -20706,28 +20665,28 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="123" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="123" t="s">
-        <v>95</v>
-      </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="123" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="E8" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="121"/>
+      <c r="G8" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="121"/>
+      <c r="I8" s="120" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="121"/>
       <c r="M8" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="9"/>
     </row>
@@ -20739,26 +20698,26 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="120" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="121"/>
+      <c r="I9" s="120" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="121"/>
       <c r="M9" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" s="9"/>
     </row>
@@ -20770,26 +20729,26 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="123" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="123" t="s">
-        <v>153</v>
-      </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="121"/>
       <c r="M10" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="P10" s="9"/>
     </row>
@@ -20803,24 +20762,24 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="123" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="123" t="s">
-        <v>139</v>
-      </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="G11" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="121"/>
       <c r="M11" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="9"/>
     </row>
@@ -20832,28 +20791,28 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="E12" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="121"/>
+      <c r="G12" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N12" s="23" t="s">
-        <v>23</v>
-      </c>
       <c r="O12" s="23" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P12" s="9"/>
     </row>
@@ -20865,26 +20824,26 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="123" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="123" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="121"/>
+      <c r="I13" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="P13" s="9"/>
     </row>
@@ -20896,28 +20855,26 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="125"/>
-      <c r="G14" s="123" t="s">
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="120" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="121"/>
+      <c r="I14" s="120" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="123" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="23" t="s">
+      <c r="N14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="23" t="s">
-        <v>24</v>
-      </c>
       <c r="O14" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P14" s="9"/>
     </row>
@@ -20929,26 +20886,28 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="123"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="123" t="s">
-        <v>154</v>
-      </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="123" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
+      <c r="E15" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="121"/>
+      <c r="G15" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="121"/>
+      <c r="I15" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="P15" s="9"/>
     </row>
@@ -20960,26 +20919,26 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="123" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="123" t="s">
-        <v>157</v>
-      </c>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="121"/>
+      <c r="I16" s="120" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="121"/>
       <c r="M16" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="P16" s="9"/>
     </row>
@@ -20991,26 +20950,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="123"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="123" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="123" t="s">
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="120" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="121"/>
       <c r="M17" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P17" s="9"/>
     </row>
@@ -21022,26 +20981,26 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="121"/>
+      <c r="I18" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="121"/>
       <c r="M18" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="P18" s="9"/>
     </row>
@@ -21053,17 +21012,27 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="121"/>
+      <c r="I19" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21074,17 +21043,27 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="121"/>
+      <c r="I20" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>23</v>
+      </c>
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -21095,14 +21074,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="121"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -21113,14 +21092,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21459,23 +21438,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21492,23 +21471,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21539,6 +21518,1614 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
+        <f>表紙_外部!D10</f>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="129" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="129"/>
+      <c r="E7" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="124"/>
+      <c r="G7" s="134" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="127" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="128"/>
+      <c r="E8" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="128"/>
+      <c r="E9" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="70"/>
+      <c r="G9" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="128"/>
+      <c r="E10" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="128"/>
+      <c r="E11" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="127" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="128"/>
+      <c r="E12" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="73"/>
+      <c r="G12" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="66"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="66"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="66"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="66"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="66"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="66"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="66"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="66"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="66"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="66"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="66"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="66"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="66"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="66"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="66"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="66"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="66"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="66"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="66"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="66"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="66"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114" t="str">
+        <f>表紙_外部!D10</f>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -21567,26 +23154,26 @@
       </c>
       <c r="E1" s="115"/>
       <c r="F1" s="116"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
       <c r="K1" s="119"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -21613,13 +23200,12 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
-      <c r="B4" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="C4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -21635,13 +23221,11 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -21658,17 +23242,15 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -21677,26 +23259,21 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="134" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="120" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="128" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
+      <c r="B7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="9"/>
@@ -21704,21 +23281,15 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="132" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="133"/>
-      <c r="E8" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="70"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -21728,21 +23299,15 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="69" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="81"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -21752,21 +23317,15 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="132" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="70"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -21776,21 +23335,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="132" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="79" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="77"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -21800,21 +23353,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="132" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="73"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -21824,15 +23371,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21842,15 +23389,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21860,19 +23407,17 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
@@ -21880,422 +23425,416 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="66"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="66"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="66"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="66"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="66"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="66"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="66"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="66"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="66"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="66"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="66"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="66"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="66"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="66"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="66"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="66"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="66"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="66"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="66"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="66"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="66"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="66"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="66"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
@@ -22334,34 +23873,14 @@
       <c r="P40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="H1:K1"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -22369,7 +23888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -22377,7 +23896,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22405,26 +23924,26 @@
       </c>
       <c r="E1" s="115"/>
       <c r="F1" s="116"/>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="87" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
       <c r="K1" s="119"/>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="68" t="s">
+      <c r="M1" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="87" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -22452,10 +23971,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -22474,7 +23993,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -22512,1550 +24031,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114" t="str">
-        <f>表紙_外部!D10</f>
-        <v>避難情報システム</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42930</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="D7" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="9"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="9"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="9"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="9"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="9"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="9"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="9"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="9"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="9"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="9"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="9"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="9"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="9"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="9"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="9"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1:P40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
-    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="2.25" style="1"/>
-    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="2.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114" t="str">
-        <f>表紙_外部!D10</f>
-        <v>避難情報システム</v>
-      </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="19">
-        <v>42930</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="C4" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="9"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="9"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="27"/>
-      <c r="D7" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -24719,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
@@ -24728,13 +24707,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -24762,10 +24741,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -24784,7 +24763,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -24822,10 +24801,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -25489,7 +25468,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="118"/>
       <c r="J1" s="118"/>
@@ -25498,13 +25477,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N1" s="85" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P1" s="19">
         <v>42930</v>
@@ -25532,10 +25511,10 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -25554,7 +25533,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25592,10 +25571,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2654,34 +2654,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2693,10 +2690,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2723,13 +2723,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14900,7 +14900,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="F1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -18090,11 +18090,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="95">
         <v>1</v>
       </c>
@@ -18103,24 +18103,24 @@
       <c r="H6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="144" t="s">
+      <c r="I6" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
       <c r="L6" s="89"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="95" t="s">
         <v>93</v>
       </c>
@@ -18129,15 +18129,15 @@
       <c r="H7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -18740,17 +18740,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19620,25 +19620,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19655,12 +19642,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20632,20 +20632,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="124"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20665,20 +20665,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="120" t="s">
+      <c r="F8" s="125"/>
+      <c r="G8" s="123" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="120" t="s">
+      <c r="H8" s="125"/>
+      <c r="I8" s="123" t="s">
         <v>169</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="121"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -20698,18 +20698,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="120" t="s">
+      <c r="E9" s="123"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="123" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="120" t="s">
+      <c r="H9" s="125"/>
+      <c r="I9" s="123" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="121"/>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -20729,18 +20729,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="120" t="s">
+      <c r="E10" s="123"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="120" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="123" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="121"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -20762,16 +20762,16 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="120" t="s">
+      <c r="G11" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="120" t="s">
+      <c r="H11" s="125"/>
+      <c r="I11" s="123" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="121"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -20791,20 +20791,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="120" t="s">
+      <c r="F12" s="125"/>
+      <c r="G12" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="120" t="s">
+      <c r="H12" s="125"/>
+      <c r="I12" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="121"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -20824,18 +20824,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="120" t="s">
+      <c r="E13" s="123"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="120" t="s">
+      <c r="H13" s="125"/>
+      <c r="I13" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="121"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -20855,18 +20855,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="120" t="s">
+      <c r="E14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="120" t="s">
+      <c r="H14" s="125"/>
+      <c r="I14" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="121"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -20886,20 +20886,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="120" t="s">
+      <c r="E15" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="120" t="s">
+      <c r="F15" s="125"/>
+      <c r="G15" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="120" t="s">
+      <c r="H15" s="125"/>
+      <c r="I15" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="121"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -20919,18 +20919,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="120" t="s">
+      <c r="E16" s="123"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="H16" s="121"/>
-      <c r="I16" s="120" t="s">
+      <c r="H16" s="125"/>
+      <c r="I16" s="123" t="s">
         <v>172</v>
       </c>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="121"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -20950,18 +20950,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="120" t="s">
+      <c r="E17" s="123"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="120" t="s">
+      <c r="H17" s="125"/>
+      <c r="I17" s="123" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="121"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -20981,18 +20981,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="120" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="123" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="121"/>
-      <c r="I18" s="120" t="s">
+      <c r="H18" s="125"/>
+      <c r="I18" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="121"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="23" t="s">
         <v>21</v>
       </c>
@@ -21012,18 +21012,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="120" t="s">
+      <c r="E19" s="123"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="123" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="121"/>
-      <c r="I19" s="120" t="s">
+      <c r="H19" s="125"/>
+      <c r="I19" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="121"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -21043,18 +21043,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="120" t="s">
+      <c r="E20" s="123"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="121"/>
-      <c r="I20" s="120" t="s">
+      <c r="H20" s="125"/>
+      <c r="I20" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="121"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="23" t="s">
         <v>19</v>
       </c>
@@ -21074,14 +21074,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="121"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -21092,14 +21092,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21438,23 +21438,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21471,23 +21471,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21657,21 +21657,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="123" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="134" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -21683,10 +21683,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="132" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="128"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="69" t="s">
         <v>73</v>
       </c>
@@ -21707,10 +21707,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="128"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="69" t="s">
         <v>111</v>
       </c>
@@ -21731,10 +21731,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="128"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="69" t="s">
         <v>74</v>
       </c>
@@ -21755,10 +21755,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="132" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="69" t="s">
         <v>138</v>
       </c>
@@ -21779,10 +21779,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="128"/>
+      <c r="D12" s="133"/>
       <c r="E12" s="74" t="s">
         <v>149</v>
       </c>
@@ -21803,15 +21803,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21821,15 +21821,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21839,15 +21839,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -21859,15 +21859,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -22314,19 +22314,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -22337,6 +22324,19 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23125,7 +23125,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -1016,16 +1016,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認印欄（2017/7/14）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウニンイン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">本システムの目的は, 地震が発生した際に迅速に避難してもらうことである. </t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -1344,12 +1334,6 @@
   </si>
   <si>
     <t>避難所の追加失敗画面表示</t>
-  </si>
-  <si>
-    <t>データベースへの避難所追加が失敗した場合に表示</t>
-  </si>
-  <si>
-    <t>データベースへの避難所追加が成功した場合に表示</t>
   </si>
   <si>
     <t>追加成功画面</t>
@@ -1723,6 +1707,36 @@
     </rPh>
     <rPh sb="6" eb="9">
       <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避難所情報がデータベースへの追加に失敗した場合表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避難所情報がデータベースへの追加に成功した場合表示</t>
+    <rPh sb="0" eb="3">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認印欄（2017/7/18）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2654,31 +2668,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2690,13 +2707,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2723,13 +2737,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14900,8 +14914,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15473,7 +15487,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="104" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="L29" s="105"/>
       <c r="M29" s="105"/>
@@ -15770,7 +15784,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15808,10 +15822,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -16540,7 +16554,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -16578,10 +16592,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -17768,7 +17782,7 @@
       <c r="I28" s="88"/>
       <c r="J28" s="88"/>
       <c r="K28" s="140" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L28" s="141"/>
       <c r="M28" s="141"/>
@@ -17789,11 +17803,11 @@
       <c r="I29" s="135"/>
       <c r="J29" s="135"/>
       <c r="K29" s="104" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L29" s="105"/>
       <c r="M29" s="138" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N29" s="138"/>
       <c r="O29" s="138" t="s">
@@ -18072,7 +18086,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18090,11 +18104,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
       <c r="E6" s="95">
         <v>1</v>
       </c>
@@ -18103,24 +18117,24 @@
       <c r="H6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="145" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="I6" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="89"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="95" t="s">
         <v>93</v>
       </c>
@@ -18129,15 +18143,15 @@
       <c r="H7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -18740,17 +18754,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18872,7 +18886,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -19620,12 +19634,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19642,25 +19669,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19801,7 +19815,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -19861,7 +19875,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="1"/>
       <c r="D9" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -19884,7 +19898,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -19906,7 +19920,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -19928,7 +19942,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -19987,7 +20001,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -20007,7 +20021,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -20254,7 +20268,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -20440,7 +20454,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -20493,7 +20507,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:L15"/>
+      <selection activeCell="I20" sqref="I20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20591,7 +20605,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -20632,20 +20646,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="120" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="120" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20665,20 +20679,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="123" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="123" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="120" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="121"/>
+      <c r="I8" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="121"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -20698,18 +20712,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="123" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9" s="121"/>
+      <c r="I9" s="120" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="121"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -20729,18 +20743,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="123" t="s">
-        <v>142</v>
-      </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="120" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="120" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="121"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -20762,16 +20776,16 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="G11" s="120" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="121"/>
+      <c r="I11" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="121"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -20791,20 +20805,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123" t="s">
-        <v>164</v>
-      </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="123" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="120" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -20824,18 +20838,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="123" t="s">
-        <v>162</v>
-      </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="120" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="121"/>
+      <c r="I13" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -20855,18 +20869,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="123" t="s">
-        <v>161</v>
-      </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="121"/>
+      <c r="I14" s="120" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="121"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -20886,20 +20900,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
+      <c r="E15" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="121"/>
+      <c r="G15" s="120" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" s="121"/>
+      <c r="I15" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -20919,18 +20933,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="121"/>
+      <c r="I16" s="120" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="121"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -20950,18 +20964,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="123"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="123" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="123" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="120" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="121"/>
+      <c r="I17" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="121"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -20981,18 +20995,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="123" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="123" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" s="121"/>
+      <c r="I18" s="120" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="121"/>
       <c r="M18" s="23" t="s">
         <v>21</v>
       </c>
@@ -21012,18 +21026,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="123" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="123" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="125"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="121"/>
+      <c r="I19" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="121"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -21043,18 +21057,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="123" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="123" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="121"/>
+      <c r="I20" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="23" t="s">
         <v>19</v>
       </c>
@@ -21074,14 +21088,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="121"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -21092,14 +21106,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21438,23 +21452,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21471,23 +21485,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21638,7 +21652,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -21657,21 +21671,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="128" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -21683,10 +21697,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="132" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="133"/>
+      <c r="C8" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="128"/>
       <c r="E8" s="69" t="s">
         <v>73</v>
       </c>
@@ -21707,10 +21721,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="132" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="133"/>
+      <c r="C9" s="127" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="128"/>
       <c r="E9" s="69" t="s">
         <v>111</v>
       </c>
@@ -21731,10 +21745,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="132" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="133"/>
+      <c r="C10" s="127" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="128"/>
       <c r="E10" s="69" t="s">
         <v>74</v>
       </c>
@@ -21755,16 +21769,16 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="132" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="133"/>
+      <c r="C11" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="128"/>
       <c r="E11" s="69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
@@ -21779,16 +21793,16 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="132" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="133"/>
+      <c r="C12" s="127" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="128"/>
       <c r="E12" s="74" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H12" s="75"/>
       <c r="I12" s="75"/>
@@ -21803,15 +21817,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21821,15 +21835,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21839,15 +21853,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -21859,15 +21873,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -22314,6 +22328,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -22324,19 +22351,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22453,7 +22467,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -22494,7 +22508,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -23223,7 +23237,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -23261,10 +23275,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -23993,7 +24007,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -24034,7 +24048,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -24763,7 +24777,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -24801,10 +24815,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -25533,7 +25547,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25571,10 +25585,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -1060,84 +1060,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">マップ機能：　ユーザに避難所までのルート情報を提供する. </t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒナン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">災害情報機能：　ユーザに日本国内と習志野市内の災害情報を提供する. </t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コクナイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ナラシノ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シナイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">避難所追加機能：　管理者に避難所を追加する機能を提供する. </t>
-    <rPh sb="0" eb="3">
-      <t>ヒナンジョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ヒナンジョ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">本システムは, Webを経由したクライアントサーバ方式でサービスを提供する. </t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -1536,10 +1458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認印欄（2017/07/14）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力情報送信</t>
   </si>
   <si>
@@ -1738,6 +1656,88 @@
     <rPh sb="3" eb="4">
       <t>ラン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ機能 ： ユーザに避難所までのルート情報を提供</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒナン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害情報機能 ： ユーザに日本国内と習志野市内の災害情報を提供</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナラシノ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避難所追加機能 ： 管理者に避難所を追加する機能を提供</t>
+    <rPh sb="0" eb="3">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認印欄（2017/07/18）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2668,34 +2668,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2707,10 +2704,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2737,13 +2737,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5152,8 +5152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="278547" y="3705945"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="258271" y="3418011"/>
+          <a:ext cx="1248895" cy="529704"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -5743,8 +5743,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10277397" y="3957278"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="9445440" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6150,8 +6150,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3521849" y="3672328"/>
-          <a:ext cx="1512796" cy="577904"/>
+          <a:off x="3243882" y="3387442"/>
+          <a:ext cx="1389801" cy="535345"/>
           <a:chOff x="328089" y="3883640"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7739,8 +7739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5191187" y="3525661"/>
-          <a:ext cx="1393499" cy="487994"/>
+          <a:off x="5668289" y="3821205"/>
+          <a:ext cx="1512796" cy="526677"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
         </a:xfrm>
@@ -8152,8 +8152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6937091" y="1826558"/>
-          <a:ext cx="873005" cy="352672"/>
+          <a:off x="7563970" y="1983440"/>
+          <a:ext cx="952500" cy="381001"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -9159,10 +9159,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="694101" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -9172,7 +9172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9368118" y="4101354"/>
+          <a:off x="8650942" y="4583206"/>
           <a:ext cx="694101" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12309,169 +12309,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>89916</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>106033</xdr:rowOff>
+      <xdr:colOff>134739</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130604</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>249031</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>164872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1118616" y="2506333"/>
-          <a:ext cx="597265" cy="230289"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>住所を入力を入力してください</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>101122</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>260237</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138082</xdr:rowOff>
+      <xdr:colOff>293854</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12480,7 +12326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2521593" y="3133780"/>
+          <a:off x="2555210" y="2674339"/>
           <a:ext cx="2512350" cy="220390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12618,15 +12464,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>117405</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>48871</xdr:rowOff>
+      <xdr:colOff>128611</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>149723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266365</xdr:colOff>
+      <xdr:colOff>277571</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>120526</xdr:rowOff>
+      <xdr:rowOff>53290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12635,7 +12481,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3322287" y="3433047"/>
+          <a:off x="3333493" y="3365811"/>
           <a:ext cx="933372" cy="239744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13025,15 +12871,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>108791</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>69101</xdr:rowOff>
+      <xdr:colOff>119997</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>113925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>257751</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>140757</xdr:rowOff>
+      <xdr:colOff>268957</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>17493</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13042,7 +12888,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3313673" y="2780925"/>
+          <a:off x="3324879" y="2993837"/>
           <a:ext cx="933372" cy="239744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14914,7 +14760,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D7" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="K29" sqref="K29:P29"/>
     </sheetView>
   </sheetViews>
@@ -15487,7 +15333,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="104" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L29" s="105"/>
       <c r="M29" s="105"/>
@@ -15784,7 +15630,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -15822,10 +15668,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -16554,7 +16400,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -16592,10 +16438,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -17226,8 +17072,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17782,7 +17628,7 @@
       <c r="I28" s="88"/>
       <c r="J28" s="88"/>
       <c r="K28" s="140" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="L28" s="141"/>
       <c r="M28" s="141"/>
@@ -17803,11 +17649,11 @@
       <c r="I29" s="135"/>
       <c r="J29" s="135"/>
       <c r="K29" s="104" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L29" s="105"/>
       <c r="M29" s="138" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N29" s="138"/>
       <c r="O29" s="138" t="s">
@@ -18086,7 +17932,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -18104,11 +17950,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="95">
         <v>1</v>
       </c>
@@ -18117,24 +17963,24 @@
       <c r="H6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="144" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
+      <c r="I6" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
       <c r="L6" s="89"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
       <c r="E7" s="95" t="s">
         <v>93</v>
       </c>
@@ -18143,15 +17989,15 @@
       <c r="H7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="144" t="s">
+      <c r="I7" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -18754,17 +18600,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18886,7 +18732,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -19634,25 +19480,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19669,12 +19502,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19693,8 +19539,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19898,7 +19744,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -19920,7 +19766,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -19942,7 +19788,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -20001,7 +19847,7 @@
       <c r="B15" s="16"/>
       <c r="C15" s="1"/>
       <c r="D15" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -20021,7 +19867,7 @@
       <c r="B16" s="16"/>
       <c r="C16" s="1"/>
       <c r="D16" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -20268,7 +20114,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -20454,7 +20300,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -20605,7 +20451,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -20646,20 +20492,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="123" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="H7" s="122"/>
+      <c r="I7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="124"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20679,20 +20525,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="120" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="121"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="123" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="125"/>
+      <c r="I8" s="123" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -20712,18 +20558,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="120" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="121"/>
-      <c r="I9" s="120" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="121"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="123" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="125"/>
+      <c r="I9" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="124"/>
+      <c r="K9" s="124"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -20743,18 +20589,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="120" t="s">
-        <v>137</v>
-      </c>
-      <c r="H10" s="121"/>
-      <c r="I10" s="120" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="121"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="125"/>
+      <c r="I10" s="123" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="124"/>
+      <c r="K10" s="124"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -20776,16 +20622,16 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="120" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="121"/>
+      <c r="G11" s="123" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="125"/>
+      <c r="I11" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -20805,20 +20651,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="120" t="s">
+      <c r="E12" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="120" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="121"/>
-      <c r="I12" s="120" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="121"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="H12" s="125"/>
+      <c r="I12" s="123" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -20838,18 +20684,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="120" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="121"/>
-      <c r="I13" s="120" t="s">
-        <v>159</v>
-      </c>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="121"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="123" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="125"/>
+      <c r="I13" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -20869,18 +20715,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="120" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="121"/>
-      <c r="I14" s="120" t="s">
-        <v>158</v>
-      </c>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="121"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="123" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="125"/>
+      <c r="I14" s="123" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -20900,20 +20746,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="120" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="120" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="120" t="s">
-        <v>164</v>
-      </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="121"/>
+      <c r="E15" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="125"/>
+      <c r="G15" s="123" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="125"/>
+      <c r="I15" s="123" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -20933,18 +20779,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="120" t="s">
-        <v>156</v>
-      </c>
-      <c r="H16" s="121"/>
-      <c r="I16" s="120" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="121"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="125"/>
+      <c r="I16" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -20964,18 +20810,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="120" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="120" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="121"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="125"/>
+      <c r="I17" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -20995,18 +20841,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="120"/>
-      <c r="F18" s="121"/>
-      <c r="G18" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="121"/>
-      <c r="I18" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="121"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="125"/>
+      <c r="I18" s="123" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="23" t="s">
         <v>21</v>
       </c>
@@ -21026,18 +20872,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" s="121"/>
-      <c r="I19" s="120" t="s">
-        <v>176</v>
-      </c>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="121"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="123" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="125"/>
+      <c r="I19" s="123" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -21057,18 +20903,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="120" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="121"/>
-      <c r="I20" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="121"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="125"/>
+      <c r="I20" s="123" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="23" t="s">
         <v>19</v>
       </c>
@@ -21088,14 +20934,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="121"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -21106,14 +20952,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21452,23 +21298,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21485,23 +21331,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21652,7 +21498,7 @@
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -21671,21 +21517,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="123" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="134" t="s">
+      <c r="F7" s="122"/>
+      <c r="G7" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -21697,10 +21543,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="127" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="128"/>
+      <c r="C8" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="133"/>
       <c r="E8" s="69" t="s">
         <v>73</v>
       </c>
@@ -21721,10 +21567,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="127" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="128"/>
+      <c r="C9" s="132" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="133"/>
       <c r="E9" s="69" t="s">
         <v>111</v>
       </c>
@@ -21745,10 +21591,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="127" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="128"/>
+      <c r="C10" s="132" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="133"/>
       <c r="E10" s="69" t="s">
         <v>74</v>
       </c>
@@ -21769,16 +21615,16 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="127" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="128"/>
+      <c r="C11" s="132" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="133"/>
       <c r="E11" s="69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H11" s="76"/>
       <c r="I11" s="76"/>
@@ -21793,16 +21639,16 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="127" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="128"/>
+      <c r="C12" s="132" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="133"/>
       <c r="E12" s="74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F12" s="73"/>
       <c r="G12" s="74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H12" s="75"/>
       <c r="I12" s="75"/>
@@ -21817,15 +21663,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="127"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21835,15 +21681,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="127"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21853,15 +21699,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -21873,15 +21719,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -22328,19 +22174,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -22351,6 +22184,19 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22467,7 +22313,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -22508,7 +22354,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -23237,7 +23083,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -23275,10 +23121,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -24007,7 +23853,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -24048,7 +23894,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -24680,7 +24526,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24777,7 +24623,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -24815,10 +24661,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -25547,7 +25393,7 @@
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -25585,10 +25431,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2668,31 +2668,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2704,13 +2707,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2737,13 +2737,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5321,7 +5321,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>失敗</a:t>
+            <a:t>失敗画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -6333,7 +6333,7 @@
               <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>失敗</a:t>
+            <a:t>失敗画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
             <a:solidFill>
@@ -7739,8 +7739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5668289" y="3821205"/>
-          <a:ext cx="1512796" cy="526677"/>
+          <a:off x="5191187" y="3525661"/>
+          <a:ext cx="1393499" cy="487994"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
         </a:xfrm>
@@ -8152,8 +8152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7563970" y="1983440"/>
-          <a:ext cx="952500" cy="381001"/>
+          <a:off x="6937091" y="1826558"/>
+          <a:ext cx="873005" cy="352672"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -9160,7 +9160,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
+      <xdr:colOff>201707</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
@@ -9172,7 +9172,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8650942" y="4583206"/>
+          <a:off x="8583707" y="4583206"/>
           <a:ext cx="694101" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14760,8 +14760,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D7" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:P29"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14794,7 +14794,7 @@
         <v>50</v>
       </c>
       <c r="P1" s="90">
-        <v>42930</v>
+        <v>42934</v>
       </c>
       <c r="Q1" s="91"/>
     </row>
@@ -17072,7 +17072,7 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="K29" sqref="K29:L29"/>
     </sheetView>
   </sheetViews>
@@ -17950,11 +17950,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
       <c r="E6" s="95">
         <v>1</v>
       </c>
@@ -17963,24 +17963,24 @@
       <c r="H6" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
       <c r="L6" s="89"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
       <c r="E7" s="95" t="s">
         <v>93</v>
       </c>
@@ -17989,15 +17989,15 @@
       <c r="H7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -18600,17 +18600,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -19480,12 +19480,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -19502,25 +19515,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20337,7 +20337,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -20352,7 +20352,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I20" sqref="I20:L20"/>
     </sheetView>
   </sheetViews>
@@ -20492,20 +20492,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="120" t="s">
+      <c r="E7" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="120" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="120" t="s">
+      <c r="H7" s="124"/>
+      <c r="I7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="122"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="124"/>
       <c r="M7" s="68" t="s">
         <v>17</v>
       </c>
@@ -20525,20 +20525,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="123" t="s">
+      <c r="F8" s="121"/>
+      <c r="G8" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="123" t="s">
+      <c r="H8" s="121"/>
+      <c r="I8" s="120" t="s">
         <v>162</v>
       </c>
-      <c r="J8" s="124"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="121"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -20558,18 +20558,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="123" t="s">
+      <c r="E9" s="120"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="123" t="s">
+      <c r="H9" s="121"/>
+      <c r="I9" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="124"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="121"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -20589,18 +20589,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="123"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="123" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="123" t="s">
+      <c r="H10" s="121"/>
+      <c r="I10" s="120" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="124"/>
-      <c r="K10" s="124"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="121"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -20622,16 +20622,16 @@
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="84"/>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="123" t="s">
+      <c r="H11" s="121"/>
+      <c r="I11" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="125"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="121"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -20651,20 +20651,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="123" t="s">
+      <c r="F12" s="121"/>
+      <c r="G12" s="120" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="123" t="s">
+      <c r="H12" s="121"/>
+      <c r="I12" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="121"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -20684,18 +20684,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="123" t="s">
+      <c r="E13" s="120"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="123" t="s">
+      <c r="H13" s="121"/>
+      <c r="I13" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="121"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -20715,18 +20715,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="123" t="s">
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="123" t="s">
+      <c r="H14" s="121"/>
+      <c r="I14" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="125"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="121"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -20746,20 +20746,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="123" t="s">
+      <c r="E15" s="120" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="123" t="s">
+      <c r="F15" s="121"/>
+      <c r="G15" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="123" t="s">
+      <c r="H15" s="121"/>
+      <c r="I15" s="120" t="s">
         <v>160</v>
       </c>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="125"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="121"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -20779,18 +20779,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="123" t="s">
+      <c r="E16" s="120"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="123" t="s">
+      <c r="H16" s="121"/>
+      <c r="I16" s="120" t="s">
         <v>165</v>
       </c>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="125"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="121"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -20810,18 +20810,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="123"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="123" t="s">
+      <c r="E17" s="120"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="123" t="s">
+      <c r="H17" s="121"/>
+      <c r="I17" s="120" t="s">
         <v>138</v>
       </c>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="125"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="121"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -20841,18 +20841,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="123" t="s">
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="123" t="s">
+      <c r="H18" s="121"/>
+      <c r="I18" s="120" t="s">
         <v>140</v>
       </c>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="125"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="121"/>
       <c r="M18" s="23" t="s">
         <v>21</v>
       </c>
@@ -20872,18 +20872,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="123" t="s">
+      <c r="E19" s="120"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="123" t="s">
+      <c r="H19" s="121"/>
+      <c r="I19" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="125"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="121"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -20903,18 +20903,18 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="123"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="123" t="s">
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="125"/>
-      <c r="I20" s="123" t="s">
+      <c r="H20" s="121"/>
+      <c r="I20" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="125"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="121"/>
       <c r="M20" s="23" t="s">
         <v>19</v>
       </c>
@@ -20934,14 +20934,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="121"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -20952,14 +20952,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -21298,23 +21298,23 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -21331,23 +21331,23 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -21378,7 +21378,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21517,21 +21517,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="129"/>
+      <c r="E7" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="128" t="s">
+      <c r="F7" s="124"/>
+      <c r="G7" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -21543,10 +21543,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="127" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="69" t="s">
         <v>73</v>
       </c>
@@ -21567,10 +21567,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="69" t="s">
         <v>111</v>
       </c>
@@ -21591,10 +21591,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="128"/>
       <c r="E10" s="69" t="s">
         <v>74</v>
       </c>
@@ -21615,10 +21615,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="128"/>
       <c r="E11" s="69" t="s">
         <v>132</v>
       </c>
@@ -21639,10 +21639,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="133"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="74" t="s">
         <v>143</v>
       </c>
@@ -21663,15 +21663,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -21681,15 +21681,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="127"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -21699,15 +21699,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -21719,15 +21719,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -22174,6 +22174,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -22184,19 +22197,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24526,7 +24526,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24576,7 +24576,7 @@
         <v>92</v>
       </c>
       <c r="P1" s="19">
-        <v>42930</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1363,9 +1363,6 @@
   <si>
     <t>現在地から避難所までのルートを地図上に表示し, ルート案内を表示</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>避難所名と緯度経度を送信</t>
   </si>
   <si>
     <t>避難所追加処理が失敗した際に表示</t>
@@ -1805,6 +1802,27 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避難所名と緯度経度を送信, 追加</t>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近藤・星</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2668,6 +2686,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2758,31 +2785,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2794,13 +2824,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2827,23 +2854,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3283,7 +3301,7 @@
             <a:rPr lang="en-US" altLang="ja-JP" sz="900">
               <a:ea typeface="小塚ゴシック Pro L" pitchFamily="34" charset="-128"/>
             </a:rPr>
-            <a:t>Apachez</a:t>
+            <a:t>Apache</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
             <a:ea typeface="小塚ゴシック Pro L" pitchFamily="34" charset="-128"/>
@@ -6189,8 +6207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="278547" y="3705945"/>
-          <a:ext cx="1352710" cy="571501"/>
+          <a:off x="258271" y="3418011"/>
+          <a:ext cx="1248895" cy="529704"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6780,8 +6798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10277397" y="3957278"/>
-          <a:ext cx="750794" cy="437030"/>
+          <a:off x="9445440" y="3652065"/>
+          <a:ext cx="690596" cy="404824"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7187,8 +7205,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3521849" y="3672328"/>
-          <a:ext cx="1512796" cy="577904"/>
+          <a:off x="3243882" y="3387442"/>
+          <a:ext cx="1389801" cy="535345"/>
           <a:chOff x="328089" y="3883640"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -8973,8 +8991,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5668289" y="3821205"/>
-          <a:ext cx="1512796" cy="526677"/>
+          <a:off x="5191187" y="3525661"/>
+          <a:ext cx="1393499" cy="487994"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
         </a:xfrm>
@@ -9386,8 +9404,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7563970" y="1983440"/>
-          <a:ext cx="952500" cy="381001"/>
+          <a:off x="6937091" y="1826558"/>
+          <a:ext cx="873005" cy="352672"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -10668,16 +10686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>225052</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>153615</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>460375</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>7937</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10686,15 +10704,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1050552" y="3063875"/>
-          <a:ext cx="3950073" cy="1611312"/>
+          <a:off x="772740" y="2952750"/>
+          <a:ext cx="4402510" cy="1611312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -10721,7 +10737,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="9600">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -11304,18 +11320,107 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="228600" marR="0" indent="-228600" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レスポンシブデザインを用いて実装し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>スマートフォンなどのデバイスでも使用可能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>にする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
             <a:buFont typeface="+mj-ea"/>
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>レシポンシブデザイン</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -12438,16 +12543,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>484188</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>7938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>144744</xdr:rowOff>
+      <xdr:rowOff>152681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12456,15 +12561,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1309688" y="2984501"/>
-          <a:ext cx="3262312" cy="1541743"/>
+          <a:off x="754063" y="2992438"/>
+          <a:ext cx="4222750" cy="1541743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -12491,7 +12594,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="9600">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -13260,18 +13363,107 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="228600" marR="0" indent="-228600" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レスポンシブデザインを用いて実装し</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>スマートフォンなどのデバイスでも使用可能</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>にする</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
             <a:buFont typeface="+mj-ea"/>
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>レシポンシブデザイン</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -15103,15 +15295,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
+      <xdr:colOff>44822</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>347381</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15120,13 +15312,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1621490" y="2821641"/>
-          <a:ext cx="440391" cy="778809"/>
+          <a:off x="4818528" y="2846294"/>
+          <a:ext cx="2398060" cy="1008530"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -67892"/>
-            <a:gd name="adj2" fmla="val -21983"/>
+            <a:gd name="adj1" fmla="val -64543"/>
+            <a:gd name="adj2" fmla="val -25316"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -15205,7 +15397,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
+      <xdr:colOff>145677</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
@@ -15222,8 +15414,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7933765" y="1591235"/>
-          <a:ext cx="2793067" cy="4493559"/>
+          <a:off x="7743265" y="1591235"/>
+          <a:ext cx="2983567" cy="4493559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15434,18 +15626,10 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　ジオコーディングが正常に行なわれたが、</a:t>
+            <a:t>　ジオコーディングが正常に行なわれたが</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -15454,31 +15638,65 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>　結果が０だったことを示しています</a:t>
+            <a:t>, </a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>結果が０だったことを示しています</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>②　</a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -15494,10 +15712,13 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -17083,6 +17304,7 @@
       <sheetName val="利用者画面(マップ)"/>
       <sheetName val="災害情報_利用者"/>
       <sheetName val="管理者画面(マップ)２"/>
+      <sheetName val="追加画面"/>
       <sheetName val="追加失敗画面 "/>
       <sheetName val="追加成功画面"/>
       <sheetName val="災害情報_管理者"/>
@@ -17110,6 +17332,7 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -17131,6 +17354,7 @@
       <sheetName val="追加成功画面"/>
       <sheetName val="災害情報_管理者"/>
       <sheetName val="表紙_内部"/>
+      <sheetName val="処理"/>
       <sheetName val="データ"/>
     </sheetNames>
     <sheetDataSet>
@@ -17153,6 +17377,7 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -17450,7 +17675,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="F4" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="F1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="K29" sqref="K29:P29"/>
     </sheetView>
   </sheetViews>
@@ -17483,10 +17708,10 @@
       <c r="O1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="91">
+      <c r="P1" s="94">
         <v>42934</v>
       </c>
-      <c r="Q1" s="92"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
@@ -17503,11 +17728,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="48"/>
@@ -17552,17 +17777,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -17573,15 +17798,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -17592,15 +17817,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -17648,19 +17873,19 @@
       <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="49"/>
@@ -17669,17 +17894,17 @@
       <c r="A11" s="48"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="49"/>
@@ -17688,17 +17913,17 @@
       <c r="A12" s="48"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="49"/>
@@ -17708,17 +17933,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -17729,15 +17954,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -17748,15 +17973,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -17767,15 +17992,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -17786,15 +18011,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -17825,15 +18050,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="44"/>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
       <c r="M19" s="45"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -17846,13 +18071,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
       <c r="M20" s="45"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -17865,13 +18090,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
       <c r="M21" s="45"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -17884,13 +18109,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
       <c r="M22" s="45"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -17903,13 +18128,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
       <c r="M23" s="45"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -17922,13 +18147,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
       <c r="M24" s="45"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -17941,13 +18166,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
       <c r="M25" s="45"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -17960,13 +18185,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
       <c r="M26" s="45"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -18022,14 +18247,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="105" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="107"/>
+      <c r="K29" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="110"/>
       <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -18043,18 +18268,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="93" t="s">
+      <c r="K30" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94" t="s">
+      <c r="L30" s="97"/>
+      <c r="M30" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94" t="s">
+      <c r="N30" s="97"/>
+      <c r="O30" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="99"/>
+      <c r="P30" s="102"/>
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -18068,12 +18293,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="100"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="103"/>
       <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -18087,12 +18312,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="100"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="103"/>
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -18106,12 +18331,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="100"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="103"/>
       <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -18125,12 +18350,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="100"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="103"/>
       <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -18144,12 +18369,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="100"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="103"/>
       <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -18163,12 +18388,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="101"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="104"/>
       <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -18208,7 +18433,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -18223,7 +18448,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18240,26 +18465,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
@@ -18273,7 +18498,7 @@
         <v>79</v>
       </c>
       <c r="P1" s="19">
-        <v>42930</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18358,7 +18583,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>129</v>
@@ -18992,7 +19217,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="J16" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="J1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -19010,26 +19235,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
@@ -19128,7 +19353,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>130</v>
@@ -19763,7 +19988,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:P28"/>
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19796,10 +20021,10 @@
       <c r="O1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="91">
-        <v>42930</v>
-      </c>
-      <c r="Q1" s="92"/>
+      <c r="P1" s="94">
+        <v>42934</v>
+      </c>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
@@ -19816,11 +20041,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="48"/>
@@ -19865,17 +20090,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -19886,15 +20111,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -19905,15 +20130,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -19961,20 +20186,20 @@
       <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="111" t="str">
+      <c r="D10" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="49"/>
@@ -19983,17 +20208,17 @@
       <c r="A11" s="48"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="49"/>
@@ -20002,17 +20227,17 @@
       <c r="A12" s="48"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="49"/>
@@ -20022,17 +20247,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -20043,15 +20268,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -20062,15 +20287,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -20081,15 +20306,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -20100,15 +20325,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -20139,15 +20364,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="44"/>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
       <c r="M19" s="45"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -20160,13 +20385,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
       <c r="M20" s="45"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -20179,13 +20404,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
       <c r="M21" s="45"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -20198,13 +20423,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
       <c r="M22" s="45"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -20217,13 +20442,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
       <c r="M23" s="45"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -20236,13 +20461,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
       <c r="M24" s="45"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -20255,13 +20480,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
       <c r="M25" s="45"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -20317,14 +20542,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="87"/>
       <c r="J28" s="87"/>
-      <c r="K28" s="141" t="s">
-        <v>182</v>
-      </c>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="143"/>
+      <c r="K28" s="144" t="s">
+        <v>181</v>
+      </c>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="49"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -20336,20 +20561,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="105" t="s">
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" s="109"/>
+      <c r="M29" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="106"/>
-      <c r="M29" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139" t="s">
+      <c r="N29" s="142"/>
+      <c r="O29" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="P29" s="140"/>
+      <c r="P29" s="143"/>
       <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20361,14 +20586,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="100"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="103"/>
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20380,14 +20605,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="100"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="103"/>
       <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20399,14 +20624,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="100"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="103"/>
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20418,14 +20643,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="100"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="103"/>
       <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20437,14 +20662,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="100"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="103"/>
       <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20456,14 +20681,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="101"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="104"/>
       <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -20519,7 +20744,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -20541,37 +20766,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>[2]表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="90" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N1" s="90" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -20599,7 +20824,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>34</v>
@@ -20640,62 +20865,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="96">
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="99">
         <v>1</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="145" t="s">
-        <v>184</v>
-      </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="I6" s="147" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
       <c r="L6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="145" t="s">
-        <v>183</v>
-      </c>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
+      <c r="M6" s="147" t="s">
+        <v>182</v>
+      </c>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="96" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
       <c r="L7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="145" t="s">
-        <v>176</v>
-      </c>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="M7" s="147" t="s">
+        <v>175</v>
+      </c>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -21298,17 +21523,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21349,26 +21574,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -21493,10 +21718,10 @@
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="146"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="35" t="s">
         <v>43</v>
       </c>
@@ -21506,11 +21731,11 @@
       <c r="I8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="146" t="s">
+      <c r="J8" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -21524,10 +21749,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="117"/>
+      <c r="F9" s="120"/>
       <c r="G9" s="31" t="s">
         <v>97</v>
       </c>
@@ -21537,11 +21762,11 @@
       <c r="I9" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="115" t="s">
+      <c r="J9" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -21555,10 +21780,10 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="31" t="s">
         <v>98</v>
       </c>
@@ -21566,11 +21791,11 @@
         <v>102</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -21584,10 +21809,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="120"/>
       <c r="G11" s="31" t="s">
         <v>99</v>
       </c>
@@ -21595,9 +21820,9 @@
         <v>103</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -21611,10 +21836,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="117"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="31" t="s">
         <v>100</v>
       </c>
@@ -21622,9 +21847,9 @@
         <v>101</v>
       </c>
       <c r="I12" s="31"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="120"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -21638,14 +21863,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -21659,14 +21884,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="120"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -21680,14 +21905,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="120"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -21701,14 +21926,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -21722,14 +21947,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="120"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -21743,14 +21968,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -21764,14 +21989,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="120"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -21785,14 +22010,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="120"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -21806,14 +22031,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -21827,14 +22052,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -21848,14 +22073,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="120"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -21869,14 +22094,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="120"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="120"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -21890,14 +22115,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -21911,14 +22136,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="120"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -22178,12 +22403,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -22200,25 +22438,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22237,8 +22462,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22255,26 +22480,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -22285,10 +22510,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="P1" s="19">
-        <v>42930</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22442,7 +22667,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -22464,7 +22689,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -22486,7 +22711,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -22995,14 +23220,14 @@
       <c r="C40" s="16"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -23053,7 +23278,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23070,26 +23295,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
@@ -23192,20 +23417,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="121" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="121" t="s">
+      <c r="H7" s="128"/>
+      <c r="I7" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="67" t="s">
         <v>17</v>
       </c>
@@ -23228,17 +23453,17 @@
       <c r="E8" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="126"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="126"/>
+        <v>154</v>
+      </c>
+      <c r="H8" s="125"/>
       <c r="I8" s="124" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
+        <v>152</v>
+      </c>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -23259,17 +23484,17 @@
         <v>2</v>
       </c>
       <c r="E9" s="124"/>
-      <c r="F9" s="126"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="124" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="126"/>
+        <v>153</v>
+      </c>
+      <c r="H9" s="125"/>
       <c r="I9" s="124" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="126"/>
+        <v>151</v>
+      </c>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -23290,17 +23515,17 @@
         <v>3</v>
       </c>
       <c r="E10" s="124"/>
-      <c r="F10" s="126"/>
+      <c r="F10" s="125"/>
       <c r="G10" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="126"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -23325,13 +23550,13 @@
       <c r="G11" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="126"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -23354,17 +23579,17 @@
       <c r="E12" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="125"/>
       <c r="G12" s="124" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="125"/>
+      <c r="I12" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="124" t="s">
-        <v>149</v>
-      </c>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -23385,17 +23610,17 @@
         <v>6</v>
       </c>
       <c r="E13" s="124"/>
-      <c r="F13" s="126"/>
+      <c r="F13" s="125"/>
       <c r="G13" s="124" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="126"/>
+        <v>146</v>
+      </c>
+      <c r="H13" s="125"/>
       <c r="I13" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
+        <v>167</v>
+      </c>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -23416,17 +23641,17 @@
         <v>7</v>
       </c>
       <c r="E14" s="124"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="124" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="126"/>
+        <v>145</v>
+      </c>
+      <c r="H14" s="125"/>
       <c r="I14" s="124" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="126"/>
+        <v>145</v>
+      </c>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -23447,19 +23672,19 @@
         <v>8</v>
       </c>
       <c r="E15" s="124" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="126"/>
+        <v>144</v>
+      </c>
+      <c r="F15" s="125"/>
       <c r="G15" s="124" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="125"/>
+      <c r="I15" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="126"/>
-      <c r="I15" s="124" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -23480,17 +23705,17 @@
         <v>9</v>
       </c>
       <c r="E16" s="124"/>
-      <c r="F16" s="126"/>
+      <c r="F16" s="125"/>
       <c r="G16" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="126"/>
+        <v>143</v>
+      </c>
+      <c r="H16" s="125"/>
       <c r="I16" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
+        <v>155</v>
+      </c>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -23511,17 +23736,17 @@
         <v>10</v>
       </c>
       <c r="E17" s="124"/>
-      <c r="F17" s="126"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="126"/>
+        <v>184</v>
+      </c>
+      <c r="H17" s="125"/>
       <c r="I17" s="124" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="126"/>
+        <v>168</v>
+      </c>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -23542,17 +23767,17 @@
         <v>11</v>
       </c>
       <c r="E18" s="124"/>
-      <c r="F18" s="126"/>
+      <c r="F18" s="125"/>
       <c r="G18" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="126"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="124" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="126"/>
+        <v>169</v>
+      </c>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="23" t="s">
         <v>19</v>
       </c>
@@ -23573,17 +23798,17 @@
         <v>12</v>
       </c>
       <c r="E19" s="124"/>
-      <c r="F19" s="126"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="126"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="124" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="126"/>
+        <v>170</v>
+      </c>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -23604,13 +23829,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="124"/>
-      <c r="F20" s="126"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="124"/>
-      <c r="H20" s="126"/>
+      <c r="H20" s="125"/>
       <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -23625,13 +23850,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="124"/>
-      <c r="F21" s="126"/>
+      <c r="F21" s="125"/>
       <c r="G21" s="124"/>
-      <c r="H21" s="126"/>
+      <c r="H21" s="125"/>
       <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -23642,14 +23867,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="42"/>
@@ -23988,22 +24213,24 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -24020,24 +24247,22 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -24085,26 +24310,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -24207,21 +24432,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="133"/>
+      <c r="E7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="129" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -24233,10 +24458,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="133" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="134"/>
+      <c r="C8" s="131" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="132"/>
       <c r="E8" s="68" t="s">
         <v>73</v>
       </c>
@@ -24257,10 +24482,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="133" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="134"/>
+      <c r="C9" s="131" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="132"/>
       <c r="E9" s="68" t="s">
         <v>109</v>
       </c>
@@ -24281,10 +24506,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="133" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="134"/>
+      <c r="C10" s="131" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="132"/>
       <c r="E10" s="68" t="s">
         <v>74</v>
       </c>
@@ -24305,16 +24530,16 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="133" t="s">
-        <v>159</v>
-      </c>
-      <c r="D11" s="134"/>
+      <c r="C11" s="131" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="132"/>
       <c r="E11" s="68" t="s">
         <v>129</v>
       </c>
       <c r="F11" s="69"/>
       <c r="G11" s="78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="75"/>
       <c r="I11" s="75"/>
@@ -24329,16 +24554,16 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="133" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="134"/>
+      <c r="C12" s="131" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="132"/>
       <c r="E12" s="73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="72"/>
       <c r="G12" s="73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -24353,15 +24578,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -24371,15 +24596,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -24389,15 +24614,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -24409,15 +24634,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -24864,6 +25089,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -24874,19 +25112,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24905,7 +25130,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="I1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -24923,26 +25148,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
@@ -24953,7 +25178,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -25675,7 +25900,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="J4" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="J1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -25693,26 +25918,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -25811,7 +26036,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>127</v>
@@ -26445,8 +26670,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="I1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26463,26 +26688,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="86" t="s">
         <v>2</v>
       </c>
@@ -26493,7 +26718,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -26581,10 +26806,10 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -27200,7 +27425,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -27216,7 +27441,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27233,37 +27458,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>[1]表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="90" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N1" s="90" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -27291,7 +27516,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>31</v>
@@ -27351,7 +27576,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>128</v>
@@ -27381,7 +27606,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="149"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
@@ -27488,7 +27713,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="148"/>
+      <c r="M14" s="92"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
@@ -27506,7 +27731,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="148"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
@@ -27542,7 +27767,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="148"/>
+      <c r="M17" s="92"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
@@ -27560,7 +27785,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="148"/>
+      <c r="M18" s="92"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
@@ -27596,7 +27821,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="148"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
@@ -27614,7 +27839,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="147"/>
+      <c r="M21" s="91"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
@@ -27969,7 +28194,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -27985,7 +28210,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="G1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28002,26 +28227,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="84" t="s">
         <v>2</v>
       </c>
@@ -28035,7 +28260,7 @@
         <v>79</v>
       </c>
       <c r="P1" s="19">
-        <v>42930</v>
+        <v>42934</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28120,7 +28345,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>125</v>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Documents\GitHub\yabukiC2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kondo\Documents\GitHub\yabukiC2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2668,6 +2668,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2758,31 +2767,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2794,13 +2806,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2827,23 +2836,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8973,8 +8973,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5668289" y="3821205"/>
-          <a:ext cx="1512796" cy="526677"/>
+          <a:off x="5191187" y="3525661"/>
+          <a:ext cx="1393499" cy="487994"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
         </a:xfrm>
@@ -9386,8 +9386,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7563970" y="1983440"/>
-          <a:ext cx="952500" cy="381001"/>
+          <a:off x="6937091" y="1826558"/>
+          <a:ext cx="873005" cy="352672"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -14305,15 +14305,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291621</xdr:colOff>
+      <xdr:colOff>67503</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>40956</xdr:rowOff>
+      <xdr:rowOff>164220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>450736</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>115670</xdr:rowOff>
+      <xdr:colOff>226618</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70846</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14322,8 +14322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1196496" y="2441256"/>
-          <a:ext cx="521065" cy="246164"/>
+          <a:off x="2487974" y="2573485"/>
+          <a:ext cx="2512350" cy="265214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14459,15 +14459,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285493</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>149722</xdr:rowOff>
+      <xdr:colOff>72582</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14476,8 +14476,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371343" y="3407272"/>
-          <a:ext cx="173388" cy="196540"/>
+          <a:off x="3277464" y="3679575"/>
+          <a:ext cx="891125" cy="253690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14641,16 +14641,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279734</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>148562</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>615910</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
+      <xdr:colOff>448234</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14659,8 +14659,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032209" y="3920462"/>
-          <a:ext cx="857663" cy="2102700"/>
+          <a:off x="1467557" y="4160268"/>
+          <a:ext cx="4538795" cy="2058997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14933,15 +14933,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>265673</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>46689</xdr:rowOff>
+      <xdr:colOff>41555</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80307</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>414633</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>118345</xdr:rowOff>
+      <xdr:colOff>190515</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14950,8 +14950,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1370573" y="2961339"/>
-          <a:ext cx="168010" cy="243106"/>
+          <a:off x="3246437" y="3229160"/>
+          <a:ext cx="933372" cy="262156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15102,16 +15102,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>78440</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>705970</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>347381</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15120,8 +15120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1621490" y="2821641"/>
-          <a:ext cx="440391" cy="778809"/>
+          <a:off x="4695264" y="3081618"/>
+          <a:ext cx="2442883" cy="851647"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -15205,15 +15205,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
+      <xdr:colOff>33619</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>776008</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>776009</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15222,8 +15222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7933765" y="1591235"/>
-          <a:ext cx="2793067" cy="4493559"/>
+          <a:off x="7631207" y="1591235"/>
+          <a:ext cx="3095626" cy="4908177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15456,36 +15456,35 @@
             </a:rPr>
             <a:t>　結果が０だったことを示しています</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>追加のエラー</a:t>
+            <a:t>②　追加のエラー</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -15494,17 +15493,20 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>施設名が重複している</a:t>
+            <a:t>　施設名が重複している</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -15903,8 +15905,8 @@
       <xdr:rowOff>151744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>477653</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>579438</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>151746</xdr:rowOff>
     </xdr:to>
@@ -15916,7 +15918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="691964" y="1389994"/>
-          <a:ext cx="4500564" cy="698502"/>
+          <a:ext cx="5380224" cy="698502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15953,7 +15955,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>施設名が既に登録されている可能性があります</a:t>
+            <a:t>施設名が既に登録されている可能性があります。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -17483,10 +17485,10 @@
       <c r="O1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="91">
+      <c r="P1" s="94">
         <v>42934</v>
       </c>
-      <c r="Q1" s="92"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
@@ -17503,11 +17505,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="48"/>
@@ -17552,17 +17554,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -17573,15 +17575,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -17592,15 +17594,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -17648,19 +17650,19 @@
       <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="49"/>
@@ -17669,17 +17671,17 @@
       <c r="A11" s="48"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="49"/>
@@ -17688,17 +17690,17 @@
       <c r="A12" s="48"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="49"/>
@@ -17708,17 +17710,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -17729,15 +17731,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -17748,15 +17750,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -17767,15 +17769,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -17786,15 +17788,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -17825,15 +17827,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="44"/>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
       <c r="M19" s="45"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -17846,13 +17848,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="105"/>
       <c r="M20" s="45"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -17865,13 +17867,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
       <c r="M21" s="45"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -17884,13 +17886,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="105"/>
       <c r="M22" s="45"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -17903,13 +17905,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
       <c r="M23" s="45"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -17922,13 +17924,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
       <c r="M24" s="45"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -17941,13 +17943,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
       <c r="M25" s="45"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -17960,13 +17962,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="105"/>
       <c r="M26" s="45"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -18022,14 +18024,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="105" t="s">
+      <c r="K29" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="107"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="109"/>
+      <c r="P29" s="110"/>
       <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -18043,18 +18045,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="93" t="s">
+      <c r="K30" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94" t="s">
+      <c r="L30" s="97"/>
+      <c r="M30" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94" t="s">
+      <c r="N30" s="97"/>
+      <c r="O30" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="P30" s="99"/>
+      <c r="P30" s="102"/>
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -18068,12 +18070,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="100"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="103"/>
       <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -18087,12 +18089,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="100"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="103"/>
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -18106,12 +18108,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="100"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="103"/>
       <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -18125,12 +18127,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="100"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="103"/>
       <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -18144,12 +18146,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="100"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="103"/>
       <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -18163,12 +18165,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="101"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="104"/>
       <c r="Q36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -18208,7 +18210,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -18223,7 +18225,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18240,26 +18242,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
@@ -19010,26 +19012,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="63" t="s">
         <v>2</v>
       </c>
@@ -19796,10 +19798,10 @@
       <c r="O1" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="91">
+      <c r="P1" s="94">
         <v>42930</v>
       </c>
-      <c r="Q1" s="92"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="48"/>
@@ -19816,11 +19818,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="103" t="s">
+      <c r="O2" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="104"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="48"/>
@@ -19865,17 +19867,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="109"/>
-      <c r="K5" s="109"/>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -19886,15 +19888,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -19905,15 +19907,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -19961,20 +19963,20 @@
       <c r="A10" s="48"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="111" t="str">
+      <c r="D10" s="114" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="49"/>
@@ -19983,17 +19985,17 @@
       <c r="A11" s="48"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="49"/>
@@ -20002,17 +20004,17 @@
       <c r="A12" s="48"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="49"/>
@@ -20022,17 +20024,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -20043,15 +20045,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="113"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -20062,15 +20064,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -20081,15 +20083,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -20100,15 +20102,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -20139,15 +20141,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="44"/>
-      <c r="F19" s="138" t="s">
+      <c r="F19" s="141" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
       <c r="M19" s="45"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -20160,13 +20162,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
       <c r="M20" s="45"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -20179,13 +20181,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
       <c r="M21" s="45"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -20198,13 +20200,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
       <c r="M22" s="45"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -20217,13 +20219,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
       <c r="M23" s="45"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -20236,13 +20238,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
       <c r="M24" s="45"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -20255,13 +20257,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
       <c r="M25" s="45"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -20317,14 +20319,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="87"/>
       <c r="J28" s="87"/>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="142"/>
-      <c r="O28" s="142"/>
-      <c r="P28" s="143"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="146"/>
       <c r="Q28" s="49"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -20336,20 +20338,20 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="105" t="s">
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="L29" s="106"/>
-      <c r="M29" s="139" t="s">
+      <c r="L29" s="109"/>
+      <c r="M29" s="142" t="s">
         <v>143</v>
       </c>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139" t="s">
+      <c r="N29" s="142"/>
+      <c r="O29" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="P29" s="140"/>
+      <c r="P29" s="143"/>
       <c r="Q29" s="49"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20361,14 +20363,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="100"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="103"/>
       <c r="Q30" s="49"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20380,14 +20382,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="100"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="103"/>
       <c r="Q31" s="49"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20399,14 +20401,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="100"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="103"/>
       <c r="Q32" s="49"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20418,14 +20420,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="100"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="103"/>
       <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -20437,14 +20439,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="100"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="103"/>
       <c r="Q34" s="49"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -20456,14 +20458,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="101"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="104"/>
       <c r="Q35" s="49"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -20519,7 +20521,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -20541,26 +20543,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>[2]表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="90" t="s">
         <v>2</v>
       </c>
@@ -20640,62 +20642,62 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="96">
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="99">
         <v>1</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="145" t="s">
+      <c r="I6" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="145"/>
-      <c r="K6" s="145"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
       <c r="L6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="145" t="s">
+      <c r="M6" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="N6" s="145"/>
-      <c r="O6" s="145"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="96" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
       <c r="L7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="145" t="s">
+      <c r="M7" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -21298,17 +21300,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21349,26 +21351,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -21493,10 +21495,10 @@
       <c r="D8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="146"/>
+      <c r="F8" s="149"/>
       <c r="G8" s="35" t="s">
         <v>43</v>
       </c>
@@ -21506,11 +21508,11 @@
       <c r="I8" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="146" t="s">
+      <c r="J8" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -21524,10 +21526,10 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="115" t="s">
+      <c r="E9" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="117"/>
+      <c r="F9" s="120"/>
       <c r="G9" s="31" t="s">
         <v>97</v>
       </c>
@@ -21537,11 +21539,11 @@
       <c r="I9" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="115" t="s">
+      <c r="J9" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -21555,10 +21557,10 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="120"/>
       <c r="G10" s="31" t="s">
         <v>98</v>
       </c>
@@ -21566,11 +21568,11 @@
         <v>102</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="115" t="s">
+      <c r="J10" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -21584,10 +21586,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="118" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="120"/>
       <c r="G11" s="31" t="s">
         <v>99</v>
       </c>
@@ -21595,9 +21597,9 @@
         <v>103</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -21611,10 +21613,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="115" t="s">
+      <c r="E12" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="117"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="31" t="s">
         <v>100</v>
       </c>
@@ -21622,9 +21624,9 @@
         <v>101</v>
       </c>
       <c r="I12" s="31"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="J12" s="118"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="120"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -21638,14 +21640,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -21659,14 +21661,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="115"/>
-      <c r="F14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="120"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="120"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -21680,14 +21682,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="120"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="120"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -21701,14 +21703,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="115"/>
-      <c r="F16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -21722,14 +21724,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="120"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -21743,14 +21745,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -21764,14 +21766,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="J19" s="118"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="120"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -21785,14 +21787,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="120"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -21806,14 +21808,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="115"/>
-      <c r="F21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="120"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -21827,14 +21829,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="115"/>
-      <c r="F22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="120"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -21848,14 +21850,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="120"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="120"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -21869,14 +21871,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="115"/>
-      <c r="F24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="120"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="119"/>
+      <c r="L24" s="120"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -21890,14 +21892,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="115"/>
-      <c r="F25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -21911,14 +21913,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="115"/>
-      <c r="F26" s="117"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="120"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -22178,12 +22180,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -22200,25 +22215,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22255,26 +22257,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -23070,26 +23072,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
@@ -23192,20 +23194,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="121" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="121" t="s">
+      <c r="H7" s="128"/>
+      <c r="I7" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="67" t="s">
         <v>17</v>
       </c>
@@ -23228,17 +23230,17 @@
       <c r="E8" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="126"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="126"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -23259,17 +23261,17 @@
         <v>2</v>
       </c>
       <c r="E9" s="124"/>
-      <c r="F9" s="126"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="126"/>
+      <c r="H9" s="125"/>
       <c r="I9" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -23290,17 +23292,17 @@
         <v>3</v>
       </c>
       <c r="E10" s="124"/>
-      <c r="F10" s="126"/>
+      <c r="F10" s="125"/>
       <c r="G10" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="126"/>
+      <c r="H10" s="125"/>
       <c r="I10" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -23325,13 +23327,13 @@
       <c r="G11" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="126"/>
+      <c r="H11" s="125"/>
       <c r="I11" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -23354,17 +23356,17 @@
       <c r="E12" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="125"/>
       <c r="G12" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="126"/>
+      <c r="H12" s="125"/>
       <c r="I12" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -23385,17 +23387,17 @@
         <v>6</v>
       </c>
       <c r="E13" s="124"/>
-      <c r="F13" s="126"/>
+      <c r="F13" s="125"/>
       <c r="G13" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H13" s="126"/>
+      <c r="H13" s="125"/>
       <c r="I13" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -23416,17 +23418,17 @@
         <v>7</v>
       </c>
       <c r="E14" s="124"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="126"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -23449,17 +23451,17 @@
       <c r="E15" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="126"/>
+      <c r="F15" s="125"/>
       <c r="G15" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="H15" s="126"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -23480,17 +23482,17 @@
         <v>9</v>
       </c>
       <c r="E16" s="124"/>
-      <c r="F16" s="126"/>
+      <c r="F16" s="125"/>
       <c r="G16" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="126"/>
+      <c r="H16" s="125"/>
       <c r="I16" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -23511,17 +23513,17 @@
         <v>10</v>
       </c>
       <c r="E17" s="124"/>
-      <c r="F17" s="126"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="H17" s="126"/>
+      <c r="H17" s="125"/>
       <c r="I17" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="126"/>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -23542,17 +23544,17 @@
         <v>11</v>
       </c>
       <c r="E18" s="124"/>
-      <c r="F18" s="126"/>
+      <c r="F18" s="125"/>
       <c r="G18" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="126"/>
+      <c r="H18" s="125"/>
       <c r="I18" s="124" t="s">
         <v>170</v>
       </c>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="23" t="s">
         <v>19</v>
       </c>
@@ -23573,17 +23575,17 @@
         <v>12</v>
       </c>
       <c r="E19" s="124"/>
-      <c r="F19" s="126"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="126"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="126"/>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -23604,13 +23606,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="124"/>
-      <c r="F20" s="126"/>
+      <c r="F20" s="125"/>
       <c r="G20" s="124"/>
-      <c r="H20" s="126"/>
+      <c r="H20" s="125"/>
       <c r="I20" s="124"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -23625,13 +23627,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="124"/>
-      <c r="F21" s="126"/>
+      <c r="F21" s="125"/>
       <c r="G21" s="124"/>
-      <c r="H21" s="126"/>
+      <c r="H21" s="125"/>
       <c r="I21" s="124"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="126"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -23642,14 +23644,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="42"/>
@@ -23988,22 +23990,24 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -24020,24 +24024,22 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -24085,26 +24087,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -24207,21 +24209,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="135" t="s">
+      <c r="C7" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="121" t="s">
+      <c r="D7" s="133"/>
+      <c r="E7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="123"/>
-      <c r="G7" s="129" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -24233,10 +24235,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="134"/>
+      <c r="D8" s="132"/>
       <c r="E8" s="68" t="s">
         <v>73</v>
       </c>
@@ -24257,10 +24259,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="134"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="68" t="s">
         <v>109</v>
       </c>
@@ -24281,10 +24283,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="132"/>
       <c r="E10" s="68" t="s">
         <v>74</v>
       </c>
@@ -24305,10 +24307,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="134"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="68" t="s">
         <v>129</v>
       </c>
@@ -24329,10 +24331,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="D12" s="134"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="73" t="s">
         <v>136</v>
       </c>
@@ -24353,15 +24355,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -24371,15 +24373,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -24389,15 +24391,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -24409,15 +24411,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -24864,6 +24866,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -24874,19 +24889,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24923,26 +24925,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
@@ -25693,26 +25695,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -26463,26 +26465,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="86" t="s">
         <v>2</v>
       </c>
@@ -27215,8 +27217,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27233,26 +27235,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>[1]表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="90" t="s">
         <v>2</v>
       </c>
@@ -27381,7 +27383,7 @@
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="149"/>
+      <c r="M8" s="93"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="9"/>
@@ -27488,7 +27490,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="148"/>
+      <c r="M14" s="92"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="9"/>
@@ -27506,7 +27508,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="26"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="148"/>
+      <c r="M15" s="92"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="9"/>
@@ -27542,7 +27544,7 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="148"/>
+      <c r="M17" s="92"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="9"/>
@@ -27560,7 +27562,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="148"/>
+      <c r="M18" s="92"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="9"/>
@@ -27596,7 +27598,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="148"/>
+      <c r="M20" s="92"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="9"/>
@@ -27614,7 +27616,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="147"/>
+      <c r="M21" s="91"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="9"/>
@@ -27985,7 +27987,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="G1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28002,26 +28004,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="str">
+      <c r="B1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="str">
         <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
       <c r="G1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="118" t="s">
+      <c r="H1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
       <c r="L1" s="84" t="s">
         <v>2</v>
       </c>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2785,34 +2785,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2824,10 +2821,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2854,10 +2854,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6190,15 +6190,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>70438</xdr:colOff>
+      <xdr:colOff>14407</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>14408</xdr:colOff>
+      <xdr:colOff>56028</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>51228</xdr:rowOff>
+      <xdr:rowOff>152080</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6207,8 +6207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="258271" y="3418011"/>
-          <a:ext cx="1248895" cy="529704"/>
+          <a:off x="222516" y="3705945"/>
+          <a:ext cx="1450361" cy="672353"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -6270,7 +6270,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="390434" y="3888442"/>
+            <a:off x="397980" y="3874834"/>
             <a:ext cx="1229363" cy="392415"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -6393,9 +6393,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>14408</xdr:colOff>
+      <xdr:colOff>56028</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>101654</xdr:rowOff>
+      <xdr:rowOff>152080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -6413,8 +6413,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="871658" y="4045004"/>
-          <a:ext cx="159100" cy="794016"/>
+          <a:off x="1672877" y="4042122"/>
+          <a:ext cx="898530" cy="726781"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -6798,8 +6798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9445440" y="3652065"/>
-          <a:ext cx="690596" cy="404824"/>
+          <a:off x="10277397" y="3957278"/>
+          <a:ext cx="750794" cy="437030"/>
           <a:chOff x="336178" y="3787589"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7188,15 +7188,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>120063</xdr:colOff>
+      <xdr:colOff>48024</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>118462</xdr:rowOff>
+      <xdr:rowOff>38420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>848448</xdr:colOff>
+      <xdr:colOff>896470</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>24014</xdr:rowOff>
+      <xdr:rowOff>128068</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7205,8 +7205,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3243882" y="3387442"/>
-          <a:ext cx="1389801" cy="535345"/>
+          <a:off x="3449810" y="3592286"/>
+          <a:ext cx="1632857" cy="762000"/>
           <a:chOff x="328089" y="3883640"/>
           <a:chExt cx="1367117" cy="571501"/>
         </a:xfrm>
@@ -7405,9 +7405,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>848448</xdr:colOff>
+      <xdr:colOff>896470</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>71238</xdr:rowOff>
+      <xdr:rowOff>83244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -7425,8 +7425,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543773" y="4014588"/>
-          <a:ext cx="166304" cy="763440"/>
+          <a:off x="5082667" y="3973286"/>
+          <a:ext cx="852108" cy="737987"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7999,13 +7999,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>117318</xdr:colOff>
+      <xdr:colOff>115260</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>51228</xdr:rowOff>
+      <xdr:rowOff>152080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
+      <xdr:colOff>117318</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>38421</xdr:rowOff>
     </xdr:to>
@@ -8018,9 +8018,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="803118" y="4337478"/>
-          <a:ext cx="5147" cy="501543"/>
+        <a:xfrm>
+          <a:off x="947697" y="4378298"/>
+          <a:ext cx="2058" cy="390606"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8158,7 +8158,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
+      <xdr:colOff>115260</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>152079</xdr:rowOff>
     </xdr:to>
@@ -8172,8 +8172,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800699" y="3448210"/>
-          <a:ext cx="7566" cy="304319"/>
+          <a:off x="947336" y="3404987"/>
+          <a:ext cx="361" cy="300958"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8305,15 +8305,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>84488</xdr:colOff>
+      <xdr:colOff>80042</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>25613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>92050</xdr:colOff>
+      <xdr:colOff>84488</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>118462</xdr:rowOff>
+      <xdr:rowOff>38420</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8324,9 +8324,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1456088" y="3283163"/>
-          <a:ext cx="7562" cy="435749"/>
+        <a:xfrm flipH="1">
+          <a:off x="4266239" y="3243302"/>
+          <a:ext cx="4446" cy="348984"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8356,9 +8356,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>92050</xdr:colOff>
+      <xdr:colOff>80042</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>24014</xdr:rowOff>
+      <xdr:rowOff>128068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -8376,8 +8376,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1463650" y="4310264"/>
-          <a:ext cx="2859" cy="475768"/>
+          <a:off x="4266239" y="4354286"/>
+          <a:ext cx="14867" cy="364991"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11294,11 +11294,14 @@
             </a:rPr>
             <a:t>　　　はデータベースに追加されている避難所がプルダウンで表示される</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
@@ -11313,11 +11316,14 @@
             </a:rPr>
             <a:t>ルート表示ボタンを押すとマップ上に目的地までのルートを表示させる</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="228600" marR="0" indent="-228600" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -11347,7 +11353,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>レスポンシブデザインを用いて実装し</a:t>
+            <a:t>レスポンシブデザインを用いて実装しスマートフォンなどのデバイスでも使用可能にする</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -11359,55 +11365,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>スマートフォンなどのデバイスでも使用可能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>にする</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t> . </a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -12001,11 +11959,14 @@
             </a:rPr>
             <a:t>全国と習志野市の避難情報を表示する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
@@ -12020,11 +11981,14 @@
             </a:rPr>
             <a:t>災害情報はツイッターから取得する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
@@ -12061,7 +12025,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t>. </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -12107,18 +12071,6 @@
             <a:t>実装し</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -12140,7 +12092,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>可能</a:t>
+            <a:t>可能にする</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -12152,31 +12104,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>にする</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t> . </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -13337,11 +13265,14 @@
             </a:rPr>
             <a:t>　　　はデータベースに追加されている避難所がプルダウンで表示される</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
@@ -13356,11 +13287,14 @@
             </a:rPr>
             <a:t>ルート表示ボタンを押すとマップ上に目的地までのルートを表示させる</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="228600" marR="0" indent="-228600" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -13390,7 +13324,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>レスポンシブデザインを用いて実装し</a:t>
+            <a:t>レスポンシブデザインを用いて実装しスマートフォンなどのデバイスでも使用可能にする</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -13402,55 +13336,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>スマートフォンなどのデバイスでも使用可能</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>にする</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>.  </a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -14023,9 +13909,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -14353,9 +14237,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
+          <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -14680,9 +14562,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -15045,11 +14925,14 @@
             </a:rPr>
             <a:t>施設名を入力してください</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -15069,11 +14952,14 @@
             </a:rPr>
             <a:t>次に住所検索を押してください</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -15093,11 +14979,14 @@
             </a:rPr>
             <a:t>アラートが表示されたら追加ボタンを押してください</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -15117,6 +15006,19 @@
             </a:rPr>
             <a:t>「追加できました」と表示されたら成功です</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15154,9 +15056,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -15565,6 +15465,18 @@
             </a:rPr>
             <a:t>　問い合わせ情報が不足している</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -15652,15 +15564,18 @@
             </a:rPr>
             <a:t>結果が０だったことを示しています</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
@@ -15726,6 +15641,22 @@
               </a:solidFill>
             </a:rPr>
             <a:t>施設名が重複している</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -20744,8 +20675,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20865,11 +20796,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="99">
         <v>1</v>
       </c>
@@ -20878,28 +20809,28 @@
       <c r="H6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="147" t="s">
+      <c r="I6" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
       <c r="L6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="147" t="s">
+      <c r="M6" s="148" t="s">
         <v>182</v>
       </c>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="99" t="s">
         <v>91</v>
       </c>
@@ -20908,19 +20839,19 @@
       <c r="H7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="147" t="s">
+      <c r="I7" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
       <c r="L7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="147" t="s">
+      <c r="M7" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -21523,21 +21454,21 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -22403,25 +22334,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -22438,12 +22356,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22462,7 +22393,7 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -23417,20 +23348,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="127" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="128"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="67" t="s">
         <v>17</v>
       </c>
@@ -23450,20 +23381,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="124" t="s">
+      <c r="F8" s="129"/>
+      <c r="G8" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="124" t="s">
+      <c r="H8" s="129"/>
+      <c r="I8" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -23483,18 +23414,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="124" t="s">
+      <c r="E9" s="127"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="124" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -23514,18 +23445,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="124" t="s">
+      <c r="E10" s="127"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="124" t="s">
+      <c r="H10" s="129"/>
+      <c r="I10" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -23547,16 +23478,16 @@
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="83"/>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="124" t="s">
+      <c r="H11" s="129"/>
+      <c r="I11" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="125"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -23576,20 +23507,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="124" t="s">
+      <c r="F12" s="129"/>
+      <c r="G12" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="124" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="125"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="129"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -23609,18 +23540,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="124" t="s">
+      <c r="E13" s="127"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="124" t="s">
+      <c r="H13" s="129"/>
+      <c r="I13" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="125"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -23640,18 +23571,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="124" t="s">
+      <c r="E14" s="127"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="124" t="s">
+      <c r="H14" s="129"/>
+      <c r="I14" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="125"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -23671,20 +23602,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="124" t="s">
+      <c r="F15" s="129"/>
+      <c r="G15" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="124" t="s">
+      <c r="H15" s="129"/>
+      <c r="I15" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="125"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="129"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -23704,18 +23635,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="124" t="s">
+      <c r="E16" s="127"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="124" t="s">
+      <c r="H16" s="129"/>
+      <c r="I16" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="125"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="129"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -23735,18 +23666,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="124" t="s">
+      <c r="E17" s="127"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="124" t="s">
+      <c r="H17" s="129"/>
+      <c r="I17" s="127" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="125"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -23766,18 +23697,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="124"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="124" t="s">
+      <c r="E18" s="127"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="124" t="s">
+      <c r="H18" s="129"/>
+      <c r="I18" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="125"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
       <c r="M18" s="23" t="s">
         <v>19</v>
       </c>
@@ -23797,18 +23728,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="124" t="s">
+      <c r="E19" s="127"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="124" t="s">
+      <c r="H19" s="129"/>
+      <c r="I19" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="125"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -23828,14 +23759,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="125"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="129"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -23849,14 +23780,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="129"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -23867,14 +23798,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="42"/>
@@ -24213,24 +24144,22 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -24247,22 +24176,24 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -24432,21 +24363,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="138" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -24458,10 +24389,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="132"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="68" t="s">
         <v>73</v>
       </c>
@@ -24482,10 +24413,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="136" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="132"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="68" t="s">
         <v>109</v>
       </c>
@@ -24506,10 +24437,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="68" t="s">
         <v>74</v>
       </c>
@@ -24530,10 +24461,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="136" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="132"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="68" t="s">
         <v>129</v>
       </c>
@@ -24554,10 +24485,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="73" t="s">
         <v>135</v>
       </c>
@@ -24578,15 +24509,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -24596,15 +24527,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -24614,15 +24545,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -24634,15 +24565,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -25089,19 +25020,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -25112,6 +25030,19 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -27441,7 +27372,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28964,7 +28895,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'機能 '!$D$7:$O$22</definedName>
@@ -1599,84 +1598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マップ機能 ： ユーザに避難所までのルート情報を提供</t>
-    <rPh sb="3" eb="5">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒナン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>災害情報機能 ： ユーザに日本国内と習志野市内の災害情報を提供</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コクナイ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ナラシノ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シナイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>避難所追加機能 ： 管理者に避難所を追加する機能を提供</t>
-    <rPh sb="0" eb="3">
-      <t>ヒナンジョ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ヒナンジョ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>図３　システム内情報の流れ</t>
     <rPh sb="0" eb="1">
       <t>ズ</t>
@@ -1783,20 +1704,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>承認印欄（2017/7/19）</t>
-    <rPh sb="0" eb="3">
-      <t>ショウニンイン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>承認印欄（2017/07/19）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1829,6 +1736,98 @@
     <t>長さ：100</t>
     <rPh sb="0" eb="1">
       <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認印欄（2017/7/20）</t>
+    <rPh sb="0" eb="3">
+      <t>ショウニンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認印欄（2017/07/20）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ機能 ： ユーザに避難所までのルート情報を提供する.</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒナン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害情報機能 ： ユーザに日本国内と習志野市内の災害情報を提供する.</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナラシノ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シナイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避難所追加機能 ： 管理者に避難所を追加する機能を提供する.</t>
+    <rPh sb="0" eb="3">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヒナンジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2792,34 +2791,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2831,10 +2827,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2861,10 +2860,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7104,15 +7103,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>203308</xdr:colOff>
+      <xdr:colOff>187298</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:rowOff>148878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>770921</xdr:colOff>
+      <xdr:colOff>754911</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>89645</xdr:rowOff>
+      <xdr:rowOff>81641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7121,8 +7120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1374883" y="4786032"/>
-          <a:ext cx="167563" cy="447113"/>
+          <a:off x="3589084" y="4711273"/>
+          <a:ext cx="1352024" cy="437028"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartPredefinedProcess">
           <a:avLst/>
@@ -8363,15 +8362,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>80042</xdr:colOff>
+      <xdr:colOff>78899</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>128068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>94909</xdr:colOff>
+      <xdr:colOff>80042</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:rowOff>148878</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8382,9 +8381,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4266239" y="4354286"/>
-          <a:ext cx="14867" cy="364991"/>
+        <a:xfrm flipH="1">
+          <a:off x="4265096" y="4354286"/>
+          <a:ext cx="1143" cy="356987"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8998,8 +8997,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5191187" y="3525661"/>
-          <a:ext cx="1393499" cy="487994"/>
+          <a:off x="5668289" y="3821205"/>
+          <a:ext cx="1512796" cy="526677"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
         </a:xfrm>
@@ -9411,8 +9410,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6937091" y="1826558"/>
-          <a:ext cx="873005" cy="352672"/>
+          <a:off x="7563970" y="1983440"/>
+          <a:ext cx="952500" cy="381001"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -10624,6 +10623,162 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>677191</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>96369</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="694101" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3882073" y="4993340"/>
+          <a:ext cx="694101" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>リンク押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="694101" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485030" y="4291852"/>
+          <a:ext cx="694101" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>リンク押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="694101" cy="242374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2958353" y="4728882"/>
+          <a:ext cx="694101" cy="242374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>リンク押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11299,7 +11454,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　はデータベースに追加されている避難所がプルダウンで表示される</a:t>
+            <a:t>　　　をクリックするとデータベースに追加されている避難所がプルダウンで表示される</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -12040,7 +12195,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>（再読み込みされる）</a:t>
+            <a:t>（再読み込みされる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -13270,7 +13441,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　はデータベースに追加されている避難所がプルダウンで表示される</a:t>
+            <a:t>　　　をクリックするとデータベースに追加されている避難所がプルダウンで表示される</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -13452,8 +13623,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="169862" y="1519143"/>
-          <a:ext cx="1883615" cy="4824507"/>
+          <a:off x="198437" y="1525867"/>
+          <a:ext cx="7096591" cy="4984751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14386,15 +14557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>291621</xdr:colOff>
+      <xdr:colOff>11474</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>40956</xdr:rowOff>
+      <xdr:rowOff>108191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>450736</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>115670</xdr:rowOff>
+      <xdr:colOff>170589</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14403,8 +14574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1196496" y="2441256"/>
-          <a:ext cx="521065" cy="246164"/>
+          <a:off x="2431945" y="2517456"/>
+          <a:ext cx="2512350" cy="265214"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14540,15 +14711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285493</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>149722</xdr:rowOff>
+      <xdr:colOff>5346</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>26458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
+      <xdr:colOff>112059</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
+      <xdr:rowOff>280148</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14557,8 +14728,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371343" y="3407272"/>
-          <a:ext cx="173388" cy="196540"/>
+          <a:off x="3210228" y="3533899"/>
+          <a:ext cx="891125" cy="253690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14720,16 +14891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279734</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279733</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>148562</xdr:rowOff>
+      <xdr:rowOff>137356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
+      <xdr:colOff>694763</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14738,8 +14909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032209" y="3920462"/>
-          <a:ext cx="857663" cy="2102700"/>
+          <a:off x="1131380" y="4126650"/>
+          <a:ext cx="5121501" cy="2115026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15033,16 +15204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>265673</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781143</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>46689</xdr:rowOff>
+      <xdr:rowOff>147542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>414633</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>118345</xdr:rowOff>
+      <xdr:colOff>145692</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15051,8 +15222,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1370573" y="2961339"/>
-          <a:ext cx="168010" cy="243106"/>
+          <a:off x="3201614" y="3105895"/>
+          <a:ext cx="933372" cy="262156"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15201,16 +15372,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44822</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>627528</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
+      <xdr:colOff>268942</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15219,8 +15390,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4818528" y="2846294"/>
-          <a:ext cx="2398060" cy="1008530"/>
+          <a:off x="4616822" y="2969558"/>
+          <a:ext cx="2465296" cy="1008530"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -16245,15 +16416,18 @@
             </a:rPr>
             <a:t>全国と習志野市の避難情報を表示する</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="228600" marR="0" indent="-228600" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -16284,6 +16458,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>災害情報はツイッターから取得する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -16392,7 +16578,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>同ページ「災害情報」画面に飛ぶ（再読み込みされる）</a:t>
+            <a:t>同ページ「災害情報」画面に飛ぶ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（再読み込みされる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -16444,7 +16678,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>, </a:t>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -16468,7 +16702,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> .</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16523,7 +16757,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>スマートフォンなどのデバイスでも使用可能</a:t>
+            <a:t>スマートフォンなどのデバイスでも使用可能にする</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -16535,31 +16769,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>にする</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t> .</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -17232,51 +17442,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙_外部"/>
-      <sheetName val="概略"/>
-      <sheetName val="機能 "/>
-      <sheetName val="画面１"/>
-      <sheetName val="利用者画面(マップ)"/>
-      <sheetName val="災害情報_利用者"/>
-      <sheetName val="管理者画面(マップ)２"/>
-      <sheetName val="追加画面"/>
-      <sheetName val="追加失敗画面 "/>
-      <sheetName val="追加成功画面"/>
-      <sheetName val="災害情報_管理者"/>
-      <sheetName val="表紙_内部"/>
-      <sheetName val="処理"/>
-      <sheetName val="データ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="D10" t="str">
-            <v>避難情報システム</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -17613,8 +17778,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="F1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:P29"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17647,7 +17812,7 @@
         <v>50</v>
       </c>
       <c r="P1" s="94">
-        <v>42934</v>
+        <v>42936</v>
       </c>
       <c r="Q1" s="95"/>
     </row>
@@ -18186,7 +18351,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="108" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L29" s="109"/>
       <c r="M29" s="109"/>
@@ -19155,7 +19320,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="J1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -19926,7 +20091,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+      <selection activeCell="M30" sqref="M30:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20481,7 +20646,7 @@
       <c r="I28" s="87"/>
       <c r="J28" s="87"/>
       <c r="K28" s="144" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L28" s="145"/>
       <c r="M28" s="145"/>
@@ -20683,7 +20848,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20710,7 +20875,7 @@
       <c r="B1" s="116"/>
       <c r="C1" s="117"/>
       <c r="D1" s="118" t="str">
-        <f>[2]表紙_外部!D10</f>
+        <f>[1]表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
       <c r="E1" s="119"/>
@@ -20728,13 +20893,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N1" s="90" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -20762,7 +20927,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>34</v>
@@ -20803,11 +20968,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="99">
         <v>1</v>
       </c>
@@ -20816,28 +20981,28 @@
       <c r="H6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="147" t="s">
-        <v>183</v>
-      </c>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
+      <c r="I6" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
       <c r="L6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="147" t="s">
-        <v>182</v>
-      </c>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
+      <c r="M6" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="99" t="s">
         <v>91</v>
       </c>
@@ -20846,19 +21011,19 @@
       <c r="H7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="147" t="s">
+      <c r="I7" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
       <c r="L7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="147" t="s">
-        <v>175</v>
-      </c>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
+      <c r="M7" s="148" t="s">
+        <v>172</v>
+      </c>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -21461,17 +21626,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21490,7 +21655,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
@@ -21730,7 +21895,7 @@
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="118" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="K10" s="119"/>
       <c r="L10" s="120"/>
@@ -22341,25 +22506,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -22376,12 +22528,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22401,7 +22566,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22448,7 +22613,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -22605,7 +22770,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -22627,7 +22792,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -22649,7 +22814,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -23158,14 +23323,14 @@
       <c r="C40" s="16"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -23355,20 +23520,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="127" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="128"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="67" t="s">
         <v>17</v>
       </c>
@@ -23388,20 +23553,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="124" t="s">
+      <c r="F8" s="129"/>
+      <c r="G8" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="124" t="s">
+      <c r="H8" s="129"/>
+      <c r="I8" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -23421,18 +23586,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="124" t="s">
+      <c r="E9" s="127"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="124" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -23452,18 +23617,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="124" t="s">
+      <c r="E10" s="127"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="124" t="s">
+      <c r="H10" s="129"/>
+      <c r="I10" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -23485,16 +23650,16 @@
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="83"/>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="124" t="s">
+      <c r="H11" s="129"/>
+      <c r="I11" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="125"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -23514,20 +23679,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="124" t="s">
+      <c r="F12" s="129"/>
+      <c r="G12" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="124" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="125"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="129"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -23547,18 +23712,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="124" t="s">
+      <c r="E13" s="127"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="125"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="127" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -23578,18 +23743,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="124" t="s">
+      <c r="E14" s="127"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="124" t="s">
+      <c r="H14" s="129"/>
+      <c r="I14" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="125"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -23609,20 +23774,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="124" t="s">
+      <c r="F15" s="129"/>
+      <c r="G15" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="124" t="s">
+      <c r="H15" s="129"/>
+      <c r="I15" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="125"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="129"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -23642,18 +23807,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="124" t="s">
+      <c r="E16" s="127"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="124" t="s">
+      <c r="H16" s="129"/>
+      <c r="I16" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="125"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="129"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -23673,18 +23838,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="125"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="127" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="129"/>
+      <c r="I17" s="127" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -23704,18 +23869,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="124"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="124" t="s">
+      <c r="E18" s="127"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="124" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="125"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="127" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
       <c r="M18" s="23" t="s">
         <v>19</v>
       </c>
@@ -23735,18 +23900,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="124" t="s">
+      <c r="E19" s="127"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="124" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="125"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="127" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -23766,14 +23931,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="125"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="129"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -23787,14 +23952,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="129"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -23805,14 +23970,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="42"/>
@@ -24151,24 +24316,22 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -24185,22 +24348,24 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -24231,7 +24396,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24370,21 +24535,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="138" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -24396,10 +24561,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="132"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="68" t="s">
         <v>73</v>
       </c>
@@ -24420,10 +24585,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="136" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="132"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="68" t="s">
         <v>109</v>
       </c>
@@ -24444,10 +24609,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="68" t="s">
         <v>74</v>
       </c>
@@ -24468,10 +24633,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="136" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="132"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="68" t="s">
         <v>129</v>
       </c>
@@ -24492,10 +24657,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="73" t="s">
         <v>135</v>
       </c>
@@ -24516,15 +24681,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -24534,15 +24699,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -24552,15 +24717,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -24572,15 +24737,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -25027,19 +25192,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -25050,6 +25202,19 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -25116,7 +25281,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -25838,7 +26003,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="J1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -26608,8 +26773,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26656,7 +26821,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -26744,7 +26909,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>161</v>
@@ -27378,8 +27543,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27402,7 +27567,7 @@
       <c r="B1" s="116"/>
       <c r="C1" s="117"/>
       <c r="D1" s="118" t="str">
-        <f>[1]表紙_外部!D10</f>
+        <f>表紙_外部!D10</f>
         <v>避難情報システム</v>
       </c>
       <c r="E1" s="119"/>
@@ -27420,13 +27585,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N1" s="90" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -27454,7 +27619,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>31</v>
@@ -27514,7 +27679,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>128</v>
@@ -28147,7 +28312,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="G1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="187">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1598,32 +1598,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>図３　システム内情報の流れ</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>図２　画面遷移図</t>
-    <rPh sb="0" eb="1">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Twitterリストより災害情報を取得</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1829,6 +1803,10 @@
     <rPh sb="25" eb="27">
       <t>テイキョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図2　システム内情報の流れ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2791,31 +2769,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2827,13 +2808,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2860,10 +2838,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2890,14 +2868,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>721817</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>29765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>639961</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>506016</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>104180</xdr:rowOff>
     </xdr:to>
@@ -2908,8 +2886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4680645" y="5186660"/>
-          <a:ext cx="3519785" cy="1443633"/>
+          <a:off x="892969" y="5186660"/>
+          <a:ext cx="7954863" cy="1443633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2942,14 +2920,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>44649</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74414</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>52353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>766465</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>528340</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>171151</xdr:rowOff>
     </xdr:to>
@@ -2960,8 +2938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="669727" y="2813115"/>
-          <a:ext cx="9219902" cy="1659169"/>
+          <a:off x="907852" y="2813115"/>
+          <a:ext cx="7962304" cy="1659169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4084,68 +4062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>52090</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>37208</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>253007</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>96909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>275332</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="正方形/長方形 112"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="677168" y="5194103"/>
-          <a:ext cx="3556992" cy="1451073"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1242714</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>22494</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>164243</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>7442</xdr:rowOff>
+      <xdr:colOff>513457</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>126504</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4154,8 +4080,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6764237" y="6206303"/>
-          <a:ext cx="960475" cy="327252"/>
+          <a:off x="3430487" y="6109565"/>
+          <a:ext cx="1041798" cy="371900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4304,16 +4230,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>213440</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332503</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>81855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>773905</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>22325</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4322,7 +4248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953616" y="5841504"/>
+          <a:off x="1165941" y="5752207"/>
           <a:ext cx="1341812" cy="364630"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4477,16 +4403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>913483</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742330</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>121691</xdr:rowOff>
+      <xdr:rowOff>144015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>781347</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>47029</xdr:rowOff>
+      <xdr:rowOff>69353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4495,7 +4421,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6435006" y="4936281"/>
+          <a:off x="3138463" y="4958605"/>
           <a:ext cx="1601712" cy="1123404"/>
         </a:xfrm>
         <a:prstGeom prst="mathEqual">
@@ -4661,16 +4587,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>456741</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>761839</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>30574</xdr:rowOff>
+      <xdr:rowOff>52898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>465354</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>22494</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>773906</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>96909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4682,8 +4608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7235862" y="5700926"/>
-          <a:ext cx="8613" cy="505377"/>
+          <a:off x="3939319" y="5723250"/>
+          <a:ext cx="12067" cy="386315"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5170,579 +5096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>171153</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>82026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>141921</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66974</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="楕円 55"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="796231" y="5752378"/>
-          <a:ext cx="960475" cy="327252"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>マップ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95826</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>151378</xdr:rowOff>
+      <xdr:colOff>696464</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>468810</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="楕円 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2491959" y="6164034"/>
-          <a:ext cx="1154331" cy="421611"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>災害情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>764107</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>163711</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>543224</xdr:colOff>
+      <xdr:colOff>66973</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>14884</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="楕円 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2378892" y="5320606"/>
-          <a:ext cx="1341812" cy="364630"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>避難所追加</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>141921</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>74500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95826</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19879</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線矢印コネクタ 59"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="6"/>
-          <a:endCxn id="57" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1756706" y="5916004"/>
-          <a:ext cx="735253" cy="458836"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>577401</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1026915</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>53399</xdr:rowOff>
+      <xdr:rowOff>135254</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5753,8 +5116,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6098924" y="5506641"/>
-          <a:ext cx="449514" cy="388262"/>
+          <a:off x="2311249" y="5521523"/>
+          <a:ext cx="933204" cy="284083"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5764,114 +5127,6 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>141921</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>3722</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>764107</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>74500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="6"/>
-          <a:endCxn id="58" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1756706" y="5502921"/>
-          <a:ext cx="622186" cy="413083"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>653665</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>14884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>672992</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>151378</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="4"/>
-          <a:endCxn id="57" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3049798" y="5685236"/>
-          <a:ext cx="19327" cy="478798"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:headEnd type="arrow" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
@@ -8997,8 +8252,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5668289" y="3821205"/>
-          <a:ext cx="1512796" cy="526677"/>
+          <a:off x="5191187" y="3525661"/>
+          <a:ext cx="1393499" cy="487994"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
         </a:xfrm>
@@ -9410,8 +8665,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7563970" y="1983440"/>
-          <a:ext cx="952500" cy="381001"/>
+          <a:off x="6937091" y="1826558"/>
+          <a:ext cx="873005" cy="352672"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -16733,31 +15988,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>レスポンシブデザインを用いて実装し</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>スマートフォンなどのデバイスでも使用可能にする</a:t>
+            <a:t>レスポンシブデザインを用いて実装しスマートフォンなどのデバイスでも使用可能にする</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
@@ -17778,7 +17009,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -18351,7 +17582,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="108" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L29" s="109"/>
       <c r="M29" s="109"/>
@@ -20646,7 +19877,7 @@
       <c r="I28" s="87"/>
       <c r="J28" s="87"/>
       <c r="K28" s="144" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L28" s="145"/>
       <c r="M28" s="145"/>
@@ -20847,7 +20078,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -20893,13 +20124,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N1" s="90" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -20927,7 +20158,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>34</v>
@@ -20968,11 +20199,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="99">
         <v>1</v>
       </c>
@@ -20981,28 +20212,28 @@
       <c r="H6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="148" t="s">
-        <v>178</v>
-      </c>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
+      <c r="I6" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
       <c r="L6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="148" t="s">
-        <v>177</v>
-      </c>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
+      <c r="M6" s="147" t="s">
+        <v>175</v>
+      </c>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
       <c r="E7" s="99" t="s">
         <v>91</v>
       </c>
@@ -21011,19 +20242,19 @@
       <c r="H7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="148" t="s">
+      <c r="I7" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
       <c r="L7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="148" t="s">
-        <v>172</v>
-      </c>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
+      <c r="M7" s="147" t="s">
+        <v>170</v>
+      </c>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -21626,17 +20857,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21895,7 +21126,7 @@
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="118" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K10" s="119"/>
       <c r="L10" s="120"/>
@@ -22506,12 +21737,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -22528,25 +21772,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22565,8 +21796,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22613,10 +21844,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P1" s="19">
-        <v>42934</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22770,7 +22001,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -22792,7 +22023,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -22814,7 +22045,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -23322,16 +22553,14 @@
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>162</v>
-      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -23520,20 +22749,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="126"/>
-      <c r="G7" s="124" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="124" t="s">
+      <c r="H7" s="128"/>
+      <c r="I7" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="126"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="67" t="s">
         <v>17</v>
       </c>
@@ -23553,20 +22782,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="127" t="s">
+      <c r="E8" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="129"/>
-      <c r="G8" s="127" t="s">
+      <c r="F8" s="125"/>
+      <c r="G8" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="127" t="s">
+      <c r="H8" s="125"/>
+      <c r="I8" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="128"/>
-      <c r="K8" s="128"/>
-      <c r="L8" s="129"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="125"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -23586,18 +22815,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="127"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="127" t="s">
+      <c r="E9" s="124"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="127" t="s">
+      <c r="H9" s="125"/>
+      <c r="I9" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="128"/>
-      <c r="L9" s="129"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="125"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -23617,18 +22846,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="127"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="127" t="s">
+      <c r="E10" s="124"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="124" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="127" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="129"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="125"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -23650,16 +22879,16 @@
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="83"/>
-      <c r="G11" s="127" t="s">
+      <c r="G11" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="127" t="s">
+      <c r="H11" s="125"/>
+      <c r="I11" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="129"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="125"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -23679,20 +22908,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="127" t="s">
+      <c r="F12" s="125"/>
+      <c r="G12" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="127" t="s">
+      <c r="H12" s="125"/>
+      <c r="I12" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="129"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="125"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -23712,18 +22941,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="127"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="127" t="s">
+      <c r="E13" s="124"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="129"/>
-      <c r="I13" s="127" t="s">
-        <v>164</v>
-      </c>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="129"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="J13" s="126"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="125"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -23743,18 +22972,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="127"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="127" t="s">
+      <c r="E14" s="124"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="129"/>
-      <c r="I14" s="127" t="s">
+      <c r="H14" s="125"/>
+      <c r="I14" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="129"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -23774,20 +23003,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="127" t="s">
+      <c r="E15" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="129"/>
-      <c r="G15" s="127" t="s">
+      <c r="F15" s="125"/>
+      <c r="G15" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="129"/>
-      <c r="I15" s="127" t="s">
+      <c r="H15" s="125"/>
+      <c r="I15" s="124" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="129"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="125"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -23807,18 +23036,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="127"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="127" t="s">
+      <c r="E16" s="124"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="124" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="129"/>
-      <c r="I16" s="127" t="s">
+      <c r="H16" s="125"/>
+      <c r="I16" s="124" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="129"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="125"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -23838,18 +23067,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="127"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="127" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="129"/>
-      <c r="I17" s="127" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="129"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="125"/>
+      <c r="I17" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" s="126"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -23869,18 +23098,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="127"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="127" t="s">
+      <c r="E18" s="124"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="129"/>
-      <c r="I18" s="127" t="s">
-        <v>166</v>
-      </c>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="129"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="125"/>
       <c r="M18" s="23" t="s">
         <v>19</v>
       </c>
@@ -23900,18 +23129,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="127"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="127" t="s">
+      <c r="E19" s="124"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="124" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="129"/>
-      <c r="I19" s="127" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" s="126"/>
+      <c r="K19" s="126"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -23931,14 +23160,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="127"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="129"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="125"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -23952,14 +23181,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="127"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="129"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="126"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="125"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -23970,14 +23199,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="130"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="129"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="42"/>
@@ -24316,22 +23545,24 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -24348,24 +23579,22 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -24535,21 +23764,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="138" t="s">
+      <c r="C7" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="138"/>
-      <c r="E7" s="124" t="s">
+      <c r="D7" s="133"/>
+      <c r="E7" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="126"/>
-      <c r="G7" s="132" t="s">
+      <c r="F7" s="128"/>
+      <c r="G7" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="132"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -24561,10 +23790,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="137"/>
+      <c r="D8" s="132"/>
       <c r="E8" s="68" t="s">
         <v>73</v>
       </c>
@@ -24585,10 +23814,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="137"/>
+      <c r="D9" s="132"/>
       <c r="E9" s="68" t="s">
         <v>109</v>
       </c>
@@ -24609,10 +23838,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="137"/>
+      <c r="D10" s="132"/>
       <c r="E10" s="68" t="s">
         <v>74</v>
       </c>
@@ -24633,10 +23862,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="137"/>
+      <c r="D11" s="132"/>
       <c r="E11" s="68" t="s">
         <v>129</v>
       </c>
@@ -24657,10 +23886,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="136" t="s">
+      <c r="C12" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="137"/>
+      <c r="D12" s="132"/>
       <c r="E12" s="73" t="s">
         <v>135</v>
       </c>
@@ -24681,15 +23910,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -24699,15 +23928,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -24717,15 +23946,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="133"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -24737,15 +23966,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -25192,6 +24421,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -25202,23 +24444,10 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
@@ -25281,7 +24510,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -26821,7 +26050,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -26909,7 +26138,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>161</v>
@@ -27585,13 +26814,13 @@
         <v>2</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N1" s="90" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P1" s="19">
         <v>42934</v>
@@ -27619,7 +26848,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>31</v>
@@ -27679,7 +26908,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>128</v>

--- a/PM演習_設計書_矢吹C.xlsx
+++ b/PM演習_設計書_矢吹C.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -2769,34 +2769,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2808,10 +2805,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2838,10 +2838,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4062,16 +4062,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>253007</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>96909</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513455</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>513457</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>126504</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>773906</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>96740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4080,7 +4080,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3430487" y="6109565"/>
+          <a:off x="5253631" y="5737496"/>
           <a:ext cx="1041798" cy="371900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4231,15 +4231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>332503</xdr:colOff>
+      <xdr:colOff>533421</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>81855</xdr:rowOff>
+      <xdr:rowOff>66973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>111620</xdr:colOff>
+      <xdr:colOff>312538</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>104181</xdr:rowOff>
+      <xdr:rowOff>89299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4248,7 +4248,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1165941" y="5752207"/>
+          <a:off x="1366859" y="5737325"/>
           <a:ext cx="1341812" cy="364630"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4403,16 +4403,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>742330</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>144015</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35397</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>781347</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>69353</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>74413</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4421,7 +4421,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3138463" y="4958605"/>
+          <a:off x="3212877" y="5353000"/>
           <a:ext cx="1601712" cy="1123404"/>
         </a:xfrm>
         <a:prstGeom prst="mathEqual">
@@ -4587,29 +4587,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>761839</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>52898</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>692051</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>773906</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>96909</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>513455</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>87131</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="120" name="直線矢印コネクタ 119"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="118" idx="2"/>
-          <a:endCxn id="115" idx="0"/>
+          <a:endCxn id="115" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3939319" y="5723250"/>
-          <a:ext cx="12067" cy="386315"/>
+        <a:xfrm flipV="1">
+          <a:off x="4650879" y="5923446"/>
+          <a:ext cx="602752" cy="5189"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5096,28 +5095,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>696464</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>22324</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>312538</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66973</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>135254</xdr:rowOff>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>78136</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="117" idx="7"/>
+          <a:stCxn id="117" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2311249" y="5521523"/>
-          <a:ext cx="933204" cy="284083"/>
+          <a:off x="2708671" y="5911972"/>
+          <a:ext cx="587872" cy="7668"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8252,8 +8251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5191187" y="3525661"/>
-          <a:ext cx="1393499" cy="487994"/>
+          <a:off x="5668289" y="3821205"/>
+          <a:ext cx="1512796" cy="526677"/>
           <a:chOff x="3753968" y="3294530"/>
           <a:chExt cx="1512796" cy="493200"/>
         </a:xfrm>
@@ -8665,8 +8664,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6937091" y="1826558"/>
-          <a:ext cx="873005" cy="352672"/>
+          <a:off x="7563970" y="1983440"/>
+          <a:ext cx="952500" cy="381001"/>
           <a:chOff x="3787587" y="3294530"/>
           <a:chExt cx="1490384" cy="493200"/>
         </a:xfrm>
@@ -17782,7 +17781,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18552,7 +18551,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20078,7 +20077,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -20199,11 +20198,11 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="99">
         <v>1</v>
       </c>
@@ -20212,28 +20211,28 @@
       <c r="H6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="147" t="s">
+      <c r="I6" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
       <c r="L6" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="147" t="s">
+      <c r="M6" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="N6" s="147"/>
-      <c r="O6" s="147"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
       <c r="E7" s="99" t="s">
         <v>91</v>
       </c>
@@ -20242,19 +20241,19 @@
       <c r="H7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="147" t="s">
+      <c r="I7" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
       <c r="L7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="147" t="s">
+      <c r="M7" s="148" t="s">
         <v>170</v>
       </c>
-      <c r="N7" s="147"/>
-      <c r="O7" s="147"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -20857,17 +20856,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21737,25 +21736,12 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -21772,12 +21758,25 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21796,8 +21795,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22610,7 +22609,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22749,20 +22748,20 @@
       <c r="D7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="127" t="s">
+      <c r="E7" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="128"/>
-      <c r="I7" s="127" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="128"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="126"/>
       <c r="M7" s="67" t="s">
         <v>17</v>
       </c>
@@ -22782,20 +22781,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="127" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="125"/>
-      <c r="G8" s="124" t="s">
+      <c r="F8" s="129"/>
+      <c r="G8" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="124" t="s">
+      <c r="H8" s="129"/>
+      <c r="I8" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="125"/>
+      <c r="J8" s="128"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="129"/>
       <c r="M8" s="23" t="s">
         <v>20</v>
       </c>
@@ -22815,18 +22814,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="124"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="124" t="s">
+      <c r="E9" s="127"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="124" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="125"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="129"/>
       <c r="M9" s="23" t="s">
         <v>21</v>
       </c>
@@ -22846,18 +22845,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="124" t="s">
+      <c r="E10" s="127"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="127" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="124" t="s">
+      <c r="H10" s="129"/>
+      <c r="I10" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="125"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
       <c r="M10" s="23" t="s">
         <v>21</v>
       </c>
@@ -22879,16 +22878,16 @@
       </c>
       <c r="E11" s="82"/>
       <c r="F11" s="83"/>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="124" t="s">
+      <c r="H11" s="129"/>
+      <c r="I11" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="125"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
       <c r="M11" s="23" t="s">
         <v>19</v>
       </c>
@@ -22908,20 +22907,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="127" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="125"/>
-      <c r="G12" s="124" t="s">
+      <c r="F12" s="129"/>
+      <c r="G12" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="124" t="s">
+      <c r="H12" s="129"/>
+      <c r="I12" s="127" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="125"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="129"/>
       <c r="M12" s="23" t="s">
         <v>20</v>
       </c>
@@ -22941,18 +22940,18 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="124" t="s">
+      <c r="E13" s="127"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="125"/>
-      <c r="I13" s="124" t="s">
+      <c r="H13" s="129"/>
+      <c r="I13" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="125"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="129"/>
       <c r="M13" s="23" t="s">
         <v>21</v>
       </c>
@@ -22972,18 +22971,18 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="124" t="s">
+      <c r="E14" s="127"/>
+      <c r="F14" s="129"/>
+      <c r="G14" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="125"/>
-      <c r="I14" s="124" t="s">
+      <c r="H14" s="129"/>
+      <c r="I14" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="125"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="129"/>
       <c r="M14" s="23" t="s">
         <v>19</v>
       </c>
@@ -23003,20 +23002,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="127" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="125"/>
-      <c r="G15" s="124" t="s">
+      <c r="F15" s="129"/>
+      <c r="G15" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="125"/>
-      <c r="I15" s="124" t="s">
+      <c r="H15" s="129"/>
+      <c r="I15" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="125"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="129"/>
       <c r="M15" s="23" t="s">
         <v>20</v>
       </c>
@@ -23036,18 +23035,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="124"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="124" t="s">
+      <c r="E16" s="127"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="H16" s="125"/>
-      <c r="I16" s="124" t="s">
+      <c r="H16" s="129"/>
+      <c r="I16" s="127" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="125"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="129"/>
       <c r="M16" s="23" t="s">
         <v>20</v>
       </c>
@@ -23067,18 +23066,18 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="124"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="124" t="s">
+      <c r="E17" s="127"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="H17" s="125"/>
-      <c r="I17" s="124" t="s">
+      <c r="H17" s="129"/>
+      <c r="I17" s="127" t="s">
         <v>163</v>
       </c>
-      <c r="J17" s="126"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="125"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="129"/>
       <c r="M17" s="23" t="s">
         <v>21</v>
       </c>
@@ -23098,18 +23097,18 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="124"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="124" t="s">
+      <c r="E18" s="127"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="124" t="s">
+      <c r="H18" s="129"/>
+      <c r="I18" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="J18" s="126"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="125"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="129"/>
       <c r="M18" s="23" t="s">
         <v>19</v>
       </c>
@@ -23129,18 +23128,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="124"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="124" t="s">
+      <c r="E19" s="127"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="H19" s="125"/>
-      <c r="I19" s="124" t="s">
+      <c r="H19" s="129"/>
+      <c r="I19" s="127" t="s">
         <v>165</v>
       </c>
-      <c r="J19" s="126"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="125"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
       <c r="M19" s="23" t="s">
         <v>19</v>
       </c>
@@ -23160,14 +23159,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="124"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="125"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="129"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -23181,14 +23180,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="125"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="129"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -23199,14 +23198,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="42"/>
@@ -23545,24 +23544,22 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="50">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -23579,22 +23576,24 @@
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -23625,7 +23624,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23764,21 +23763,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="133"/>
-      <c r="E7" s="127" t="s">
+      <c r="D7" s="138"/>
+      <c r="E7" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="138" t="s">
+      <c r="F7" s="126"/>
+      <c r="G7" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>40</v>
@@ -23790,10 +23789,10 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="131" t="s">
+      <c r="C8" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="D8" s="132"/>
+      <c r="D8" s="137"/>
       <c r="E8" s="68" t="s">
         <v>73</v>
       </c>
@@ -23814,10 +23813,10 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="136" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="132"/>
+      <c r="D9" s="137"/>
       <c r="E9" s="68" t="s">
         <v>109</v>
       </c>
@@ -23838,10 +23837,10 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="132"/>
+      <c r="D10" s="137"/>
       <c r="E10" s="68" t="s">
         <v>74</v>
       </c>
@@ -23862,10 +23861,10 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="136" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="132"/>
+      <c r="D11" s="137"/>
       <c r="E11" s="68" t="s">
         <v>129</v>
       </c>
@@ -23886,10 +23885,10 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="137"/>
       <c r="E12" s="73" t="s">
         <v>135</v>
       </c>
@@ -23910,15 +23909,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -23928,15 +23927,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="131"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="131"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -23946,15 +23945,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
+      <c r="K15" s="131"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>45</v>
@@ -23966,15 +23965,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
       <c r="L16" s="64"/>
       <c r="M16" s="64"/>
       <c r="N16" s="64"/>
@@ -24421,19 +24420,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="H1:K1"/>
@@ -24444,6 +24430,19 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -24463,7 +24462,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25233,7 +25232,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26003,7 +26002,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26773,7 +26772,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27542,7 +27541,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
